--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31547" uniqueCount="1555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31546" uniqueCount="1556">
   <si>
     <t/>
   </si>
@@ -1377,6 +1377,9 @@
   </si>
   <si>
     <t>Doses received - DRC re-allocation; Gavi bridge fund budget approved (20 May)</t>
+  </si>
+  <si>
+    <t>4,301,383 USD</t>
   </si>
   <si>
     <t>2021-2023</t>
@@ -14732,13 +14735,13 @@
         <v>312</v>
       </c>
       <c r="CD35" t="n" s="53">
-        <v>44635.0</v>
+        <v>44705.0</v>
       </c>
       <c r="CE35" t="s" s="73">
-        <v>206</v>
+        <v>446</v>
       </c>
       <c r="CF35" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG35" t="n" s="57">
         <v>0.4</v>
@@ -14763,7 +14766,9 @@
       <c r="CO35" t="n" s="77">
         <v>843638.0</v>
       </c>
-      <c r="CP35" s="47"/>
+      <c r="CP35" t="n" s="35">
+        <v>0.15</v>
+      </c>
       <c r="CQ35" t="s" s="73">
         <v>172</v>
       </c>
@@ -14782,7 +14787,7 @@
       <c r="CV35" s="83"/>
       <c r="CW35" s="85"/>
       <c r="CX35" t="s" s="31">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="CY35" s="25"/>
       <c r="CZ35" t="s" s="87">
@@ -14806,14 +14811,14 @@
       <c r="DL35" s="73"/>
       <c r="DM35" s="91"/>
       <c r="DN35" t="s" s="73">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="DO35" t="s" s="15">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="DP35" s="101"/>
       <c r="DQ35" t="s" s="31">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="DR35" t="s" s="65">
         <v>421</v>
@@ -14829,7 +14834,7 @@
       <c r="DW35" s="31"/>
       <c r="DX35" s="25"/>
       <c r="DY35" t="s" s="31">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="DZ35" s="25"/>
       <c r="EA35" s="25"/>
@@ -14837,24 +14842,24 @@
         <v>181</v>
       </c>
       <c r="EC35" t="s" s="31">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="ED35" s="25"/>
       <c r="EE35" t="s" s="15">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="EF35" t="s" s="15">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="EG35" s="15"/>
       <c r="EH35" s="15"/>
       <c r="EI35" s="15"/>
       <c r="EJ35" t="s" s="15">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="EK35" s="15"/>
       <c r="EL35" t="s" s="15">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM35" s="15"/>
       <c r="EN35" t="n" s="25">
@@ -14863,10 +14868,10 @@
     </row>
     <row r="36" hidden="false">
       <c r="A36" t="s" s="3">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C36" t="s" s="3">
         <v>195</v>
@@ -14875,7 +14880,7 @@
         <v>148</v>
       </c>
       <c r="E36" t="s" s="7">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F36" t="s" s="9">
         <v>150</v>
@@ -14884,10 +14889,10 @@
         <v>151</v>
       </c>
       <c r="H36" t="s" s="13">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I36" t="s" s="15">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J36" t="s" s="15">
         <v>258</v>
@@ -14902,7 +14907,7 @@
       <c r="P36" s="21"/>
       <c r="Q36" s="15"/>
       <c r="R36" t="s" s="15">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="S36" t="n" s="25">
         <v>0.0</v>
@@ -14916,7 +14921,7 @@
       <c r="V36" s="11"/>
       <c r="W36" s="31"/>
       <c r="X36" t="s" s="15">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Y36" s="33"/>
       <c r="Z36" t="n" s="107">
@@ -15031,10 +15036,10 @@
         <v>44620.0</v>
       </c>
       <c r="CE36" t="s" s="97">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="CF36" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG36" t="n" s="57">
         <v>0.48</v>
@@ -15080,7 +15085,7 @@
       <c r="CV36" s="83"/>
       <c r="CW36" s="85"/>
       <c r="CX36" t="s" s="31">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="CY36" t="n" s="25">
         <v>7.6939307E7</v>
@@ -15112,20 +15117,20 @@
       <c r="DL36" s="73"/>
       <c r="DM36" s="91"/>
       <c r="DN36" t="s" s="73">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="DO36" t="s" s="15">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="DP36" s="101"/>
       <c r="DQ36" t="s" s="31">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="DR36" t="s" s="65">
         <v>236</v>
       </c>
       <c r="DS36" t="s" s="31">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="DT36" s="31"/>
       <c r="DU36" t="s" s="31">
@@ -15139,7 +15144,7 @@
       </c>
       <c r="DX36" s="25"/>
       <c r="DY36" t="s" s="31">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="DZ36" s="25"/>
       <c r="EA36" s="25"/>
@@ -15149,16 +15154,16 @@
       <c r="EC36" s="31"/>
       <c r="ED36" s="25"/>
       <c r="EE36" t="s" s="15">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="EF36" t="s" s="31">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="EG36" s="15"/>
       <c r="EH36" s="15"/>
       <c r="EI36" s="15"/>
       <c r="EJ36" t="s" s="15">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="EK36" s="15"/>
       <c r="EL36" s="15"/>
@@ -15169,17 +15174,17 @@
     </row>
     <row r="37" hidden="false">
       <c r="A37" t="s" s="25">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C37" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" t="s" s="7">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" t="s" s="11">
@@ -15187,7 +15192,7 @@
       </c>
       <c r="H37" s="13"/>
       <c r="I37" t="s" s="15">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J37" t="s" s="15">
         <v>200</v>
@@ -15399,17 +15404,17 @@
     </row>
     <row r="38" hidden="false">
       <c r="A38" t="s" s="25">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s" s="3">
         <v>256</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" t="s" s="7">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" t="s" s="11">
@@ -15420,7 +15425,7 @@
         <v>166</v>
       </c>
       <c r="J38" t="s" s="15">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="15"/>
@@ -15607,17 +15612,17 @@
     </row>
     <row r="39" hidden="false">
       <c r="A39" t="s" s="25">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C39" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" t="s" s="7">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" t="s" s="11">
@@ -15625,7 +15630,7 @@
       </c>
       <c r="H39" s="13"/>
       <c r="I39" t="s" s="15">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J39" t="s" s="15">
         <v>351</v>
@@ -15847,10 +15852,10 @@
     </row>
     <row r="40" hidden="false">
       <c r="A40" t="s" s="3">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C40" t="s" s="3">
         <v>195</v>
@@ -15868,10 +15873,10 @@
         <v>151</v>
       </c>
       <c r="H40" t="s" s="13">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I40" t="s" s="15">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J40" t="s" s="15">
         <v>154</v>
@@ -15888,7 +15893,7 @@
       </c>
       <c r="Q40" s="23"/>
       <c r="R40" t="s" s="15">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="S40" t="n" s="25">
         <v>1.0</v>
@@ -15902,7 +15907,7 @@
       </c>
       <c r="W40" s="31"/>
       <c r="X40" t="s" s="15">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Y40" s="33"/>
       <c r="Z40" t="n" s="107">
@@ -16068,7 +16073,7 @@
       <c r="CV40" s="83"/>
       <c r="CW40" s="85"/>
       <c r="CX40" t="s" s="31">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="CY40" t="n" s="25">
         <v>5027591.0</v>
@@ -16099,7 +16104,7 @@
         <v>151</v>
       </c>
       <c r="DO40" t="s" s="15">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="DP40" s="101"/>
       <c r="DQ40" s="31"/>
@@ -16113,7 +16118,7 @@
       <c r="DW40" s="31"/>
       <c r="DX40" s="25"/>
       <c r="DY40" t="s" s="31">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="DZ40" s="25"/>
       <c r="EA40" s="25"/>
@@ -16123,10 +16128,10 @@
       <c r="EC40" s="31"/>
       <c r="ED40" s="25"/>
       <c r="EE40" t="s" s="15">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="EF40" t="s" s="31">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="EG40" s="15"/>
       <c r="EH40" s="15"/>
@@ -16141,10 +16146,10 @@
     </row>
     <row r="41" hidden="false">
       <c r="A41" t="s" s="3">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C41" t="s" s="3">
         <v>195</v>
@@ -16153,7 +16158,7 @@
         <v>196</v>
       </c>
       <c r="E41" t="s" s="7">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F41" t="s" s="9">
         <v>150</v>
@@ -16162,13 +16167,13 @@
         <v>151</v>
       </c>
       <c r="H41" t="s" s="13">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I41" t="s" s="15">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J41" t="s" s="15">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" t="s" s="15">
@@ -16179,10 +16184,10 @@
       <c r="O41" s="103"/>
       <c r="P41" s="21"/>
       <c r="Q41" t="s" s="23">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="R41" t="s" s="15">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="S41" t="n" s="25">
         <v>0.0</v>
@@ -16196,7 +16201,7 @@
       <c r="V41" s="11"/>
       <c r="W41" s="31"/>
       <c r="X41" t="s" s="15">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Y41" s="33"/>
       <c r="Z41" t="n" s="107">
@@ -16337,7 +16342,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ41" t="s" s="73">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CR41" t="s" s="75">
         <v>173</v>
@@ -16381,7 +16386,7 @@
       <c r="DM41" s="91"/>
       <c r="DN41" s="73"/>
       <c r="DO41" t="s" s="15">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="DP41" s="101"/>
       <c r="DQ41" t="s" s="31">
@@ -16410,7 +16415,7 @@
       <c r="ED41" s="25"/>
       <c r="EE41" s="15"/>
       <c r="EF41" t="s" s="15">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="EG41" s="15"/>
       <c r="EH41" s="15"/>
@@ -16427,10 +16432,10 @@
     </row>
     <row r="42" hidden="false">
       <c r="A42" t="s" s="25">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C42" t="s" s="3">
         <v>256</v>
@@ -16651,17 +16656,17 @@
     </row>
     <row r="43" hidden="false">
       <c r="A43" t="s" s="25">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C43" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" t="s" s="7">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" t="s" s="11">
@@ -16885,10 +16890,10 @@
     </row>
     <row r="44" hidden="false">
       <c r="A44" t="s" s="3">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C44" t="s" s="3">
         <v>195</v>
@@ -16906,13 +16911,13 @@
         <v>151</v>
       </c>
       <c r="H44" t="s" s="13">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I44" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J44" t="s" s="15">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K44" t="b" s="3">
         <v>1</v>
@@ -16926,7 +16931,7 @@
       <c r="P44" s="21"/>
       <c r="Q44" s="23"/>
       <c r="R44" t="s" s="15">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="S44" t="n" s="25">
         <v>0.0</v>
@@ -17120,7 +17125,7 @@
       <c r="CV44" s="83"/>
       <c r="CW44" s="85"/>
       <c r="CX44" t="s" s="31">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="CY44" t="n" s="25">
         <v>5.19209981E8</v>
@@ -17159,7 +17164,7 @@
         <v>260</v>
       </c>
       <c r="DO44" t="s" s="15">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="DP44" s="101"/>
       <c r="DQ44" s="31"/>
@@ -17187,14 +17192,14 @@
       <c r="EC44" s="31"/>
       <c r="ED44" s="25"/>
       <c r="EE44" t="s" s="15">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="EF44" s="31"/>
       <c r="EG44" s="15"/>
       <c r="EH44" s="15"/>
       <c r="EI44" s="15"/>
       <c r="EJ44" t="s" s="15">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EK44" s="15"/>
       <c r="EL44" s="15"/>
@@ -17203,17 +17208,17 @@
     </row>
     <row r="45" hidden="false">
       <c r="A45" t="s" s="25">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C45" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" t="s" s="11">
@@ -17409,17 +17414,17 @@
     </row>
     <row r="46" hidden="false">
       <c r="A46" t="s" s="25">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C46" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" t="s" s="7">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" t="s" s="11">
@@ -17599,7 +17604,7 @@
       <c r="EC46" s="31"/>
       <c r="ED46" s="25"/>
       <c r="EE46" t="s" s="15">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="EF46" s="31"/>
       <c r="EG46" s="15"/>
@@ -17613,17 +17618,17 @@
     </row>
     <row r="47" hidden="false">
       <c r="A47" t="s" s="25">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C47" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" t="s" s="11">
@@ -17813,17 +17818,17 @@
     </row>
     <row r="48" hidden="false">
       <c r="A48" t="s" s="25">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C48" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" t="s" s="11">
@@ -18023,17 +18028,17 @@
     </row>
     <row r="49" hidden="false">
       <c r="A49" t="s" s="25">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C49" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" t="s" s="7">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" t="s" s="11">
@@ -18229,10 +18234,10 @@
     </row>
     <row r="50" hidden="false">
       <c r="A50" t="s" s="3">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C50" t="s" s="3">
         <v>147</v>
@@ -18250,7 +18255,7 @@
         <v>151</v>
       </c>
       <c r="H50" t="s" s="13">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I50" t="s" s="15">
         <v>413</v>
@@ -18270,13 +18275,13 @@
         <v>10000.0</v>
       </c>
       <c r="P50" t="s" s="21">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q50" t="s" s="23">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="R50" t="s" s="15">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S50" s="25"/>
       <c r="T50" t="s" s="27">
@@ -18286,7 +18291,7 @@
       <c r="V50" s="11"/>
       <c r="W50" s="31"/>
       <c r="X50" t="s" s="15">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Y50" s="33"/>
       <c r="Z50" t="n" s="107">
@@ -18448,7 +18453,7 @@
       <c r="CV50" s="83"/>
       <c r="CW50" s="85"/>
       <c r="CX50" t="s" s="31">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="CY50" t="n" s="25">
         <v>3.3679193E7</v>
@@ -18481,7 +18486,7 @@
       </c>
       <c r="DP50" s="101"/>
       <c r="DQ50" t="s" s="31">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="DR50" t="s" s="65">
         <v>315</v>
@@ -18503,14 +18508,14 @@
       <c r="EC50" s="31"/>
       <c r="ED50" s="25"/>
       <c r="EE50" t="s" s="15">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="EF50" s="31"/>
       <c r="EG50" s="15"/>
       <c r="EH50" s="15"/>
       <c r="EI50" s="15"/>
       <c r="EJ50" t="s" s="15">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="EK50" s="15"/>
       <c r="EL50" s="15"/>
@@ -18521,10 +18526,10 @@
     </row>
     <row r="51" hidden="false">
       <c r="A51" t="s" s="3">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C51" t="s" s="3">
         <v>241</v>
@@ -18533,7 +18538,7 @@
         <v>176</v>
       </c>
       <c r="E51" t="s" s="7">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F51" t="s" s="9">
         <v>231</v>
@@ -18543,7 +18548,7 @@
       </c>
       <c r="H51" s="13"/>
       <c r="I51" t="s" s="15">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J51" t="s" s="15">
         <v>243</v>
@@ -18557,7 +18562,7 @@
       <c r="O51" s="103"/>
       <c r="P51" s="21"/>
       <c r="Q51" t="s" s="23">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" t="n" s="25">
@@ -18683,7 +18688,7 @@
         <v>168</v>
       </c>
       <c r="CC51" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD51" t="n" s="53">
         <v>44274.0</v>
@@ -18720,7 +18725,7 @@
         <v>209</v>
       </c>
       <c r="CV51" t="s" s="83">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CW51" t="n" s="119">
         <v>230000.0</v>
@@ -18747,7 +18752,7 @@
       <c r="DM51" s="91"/>
       <c r="DN51" s="73"/>
       <c r="DO51" t="s" s="15">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="DP51" s="101"/>
       <c r="DQ51" s="31"/>
@@ -18767,7 +18772,7 @@
       <c r="EC51" s="31"/>
       <c r="ED51" s="25"/>
       <c r="EE51" t="s" s="15">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="EF51" s="31"/>
       <c r="EG51" s="15"/>
@@ -18781,17 +18786,17 @@
     </row>
     <row r="52" hidden="false">
       <c r="A52" t="s" s="25">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C52" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" t="s" s="7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" t="s" s="11">
@@ -19013,10 +19018,10 @@
     </row>
     <row r="53" hidden="false">
       <c r="A53" t="s" s="3">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C53" t="s" s="3">
         <v>276</v>
@@ -19030,13 +19035,13 @@
         <v>260</v>
       </c>
       <c r="H53" t="s" s="13">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I53" t="s" s="15">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J53" t="s" s="15">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" t="s" s="15">
@@ -19048,7 +19053,7 @@
       <c r="P53" s="21"/>
       <c r="Q53" s="23"/>
       <c r="R53" t="s" s="15">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="S53" t="s" s="25">
         <v>166</v>
@@ -19064,7 +19069,7 @@
       </c>
       <c r="W53" s="31"/>
       <c r="X53" t="s" s="15">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Y53" s="33"/>
       <c r="Z53" t="s" s="125">
@@ -19220,14 +19225,14 @@
       <c r="DL53" s="73"/>
       <c r="DM53" s="91"/>
       <c r="DN53" t="s" s="73">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="DO53" s="15"/>
       <c r="DP53" s="101"/>
       <c r="DQ53" s="31"/>
       <c r="DR53" s="65"/>
       <c r="DS53" t="s" s="25">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="DT53" s="31"/>
       <c r="DU53" t="s" s="31">
@@ -19245,14 +19250,14 @@
       <c r="EC53" s="31"/>
       <c r="ED53" s="25"/>
       <c r="EE53" t="s" s="15">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="EF53" s="31"/>
       <c r="EG53" s="15"/>
       <c r="EH53" s="15"/>
       <c r="EI53" s="15"/>
       <c r="EJ53" t="s" s="15">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="EK53" s="15"/>
       <c r="EL53" s="15"/>
@@ -19261,10 +19266,10 @@
     </row>
     <row r="54" hidden="false">
       <c r="A54" t="s" s="3">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B54" t="s" s="139">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C54" t="s" s="3">
         <v>195</v>
@@ -19273,7 +19278,7 @@
         <v>148</v>
       </c>
       <c r="E54" t="s" s="7">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F54" t="s" s="9">
         <v>150</v>
@@ -19282,13 +19287,13 @@
         <v>151</v>
       </c>
       <c r="H54" t="s" s="13">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I54" t="s" s="15">
         <v>389</v>
       </c>
       <c r="J54" t="s" s="15">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K54" t="b" s="3">
         <v>1</v>
@@ -19298,19 +19303,19 @@
       </c>
       <c r="M54" s="15"/>
       <c r="N54" t="s" s="17">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O54" t="s" s="103">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P54" t="s" s="21">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Q54" t="s" s="23">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="R54" t="s" s="15">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="S54" t="n" s="25">
         <v>0.0</v>
@@ -19324,7 +19329,7 @@
       <c r="V54" s="11"/>
       <c r="W54" s="31"/>
       <c r="X54" t="s" s="15">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Y54" s="33"/>
       <c r="Z54" t="n" s="107">
@@ -19488,7 +19493,7 @@
       <c r="CV54" s="83"/>
       <c r="CW54" s="85"/>
       <c r="CX54" t="s" s="31">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CY54" t="n" s="25">
         <v>2.34645959E8</v>
@@ -19520,14 +19525,14 @@
       <c r="DL54" s="73"/>
       <c r="DM54" s="91"/>
       <c r="DN54" t="s" s="73">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="DO54" t="s" s="15">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="DP54" s="101"/>
       <c r="DQ54" t="s" s="31">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="DR54" t="s" s="65">
         <v>315</v>
@@ -19538,7 +19543,7 @@
       <c r="DT54" s="31"/>
       <c r="DU54" s="31"/>
       <c r="DV54" t="s" s="141">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="DW54" s="31"/>
       <c r="DX54" s="25"/>
@@ -19549,18 +19554,18 @@
         <v>181</v>
       </c>
       <c r="EC54" t="s" s="31">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="ED54" s="25"/>
       <c r="EE54" t="s" s="15">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="EF54" s="31"/>
       <c r="EG54" s="15"/>
       <c r="EH54" s="15"/>
       <c r="EI54" s="15"/>
       <c r="EJ54" t="s" s="15">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="EK54" s="15"/>
       <c r="EL54" s="15"/>
@@ -19571,10 +19576,10 @@
     </row>
     <row r="55" hidden="false">
       <c r="A55" t="s" s="25">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C55" t="s" s="3">
         <v>241</v>
@@ -19589,7 +19594,7 @@
       </c>
       <c r="H55" s="13"/>
       <c r="I55" t="s" s="15">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J55" t="s" s="15">
         <v>351</v>
@@ -19813,10 +19818,10 @@
     </row>
     <row r="56" hidden="false">
       <c r="A56" t="s" s="3">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C56" t="s" s="3">
         <v>147</v>
@@ -19825,7 +19830,7 @@
         <v>196</v>
       </c>
       <c r="E56" t="s" s="7">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F56" t="s" s="9">
         <v>231</v>
@@ -19835,14 +19840,14 @@
       </c>
       <c r="H56" s="13"/>
       <c r="I56" t="s" s="15">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J56" t="s" s="15">
         <v>191</v>
       </c>
       <c r="K56" s="3"/>
       <c r="L56" t="s" s="15">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="17"/>
@@ -19850,7 +19855,7 @@
       <c r="P56" s="21"/>
       <c r="Q56" s="23"/>
       <c r="R56" t="s" s="15">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S56" s="25"/>
       <c r="T56" s="27"/>
@@ -19858,7 +19863,7 @@
       <c r="V56" s="11"/>
       <c r="W56" s="31"/>
       <c r="X56" t="s" s="15">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="Y56" s="33"/>
       <c r="Z56" t="n" s="107">
@@ -20010,7 +20015,7 @@
         <v>209</v>
       </c>
       <c r="CV56" t="s" s="83">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CW56" t="n" s="119">
         <v>4499931.0</v>
@@ -20045,7 +20050,7 @@
       <c r="DM56" s="91"/>
       <c r="DN56" s="73"/>
       <c r="DO56" t="s" s="15">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="DP56" s="101"/>
       <c r="DQ56" s="31"/>
@@ -20067,7 +20072,7 @@
       <c r="EC56" s="31"/>
       <c r="ED56" s="25"/>
       <c r="EE56" t="s" s="15">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="EF56" s="31"/>
       <c r="EG56" s="15"/>
@@ -20081,10 +20086,10 @@
     </row>
     <row r="57" hidden="false">
       <c r="A57" t="s" s="3">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C57" t="s" s="3">
         <v>241</v>
@@ -20093,7 +20098,7 @@
         <v>196</v>
       </c>
       <c r="E57" t="s" s="7">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s" s="9">
         <v>204</v>
@@ -20103,14 +20108,14 @@
       </c>
       <c r="H57" s="13"/>
       <c r="I57" t="s" s="15">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J57" t="s" s="15">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" t="s" s="15">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M57" s="15"/>
       <c r="N57" s="17"/>
@@ -20128,7 +20133,7 @@
       <c r="V57" s="11"/>
       <c r="W57" s="31"/>
       <c r="X57" t="s" s="15">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Y57" s="33"/>
       <c r="Z57" t="n" s="107">
@@ -20178,7 +20183,7 @@
         <v>302400.0</v>
       </c>
       <c r="AP57" t="s" s="3">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AQ57" t="n" s="39">
         <v>44438.0</v>
@@ -20187,7 +20192,7 @@
         <v>96000.0</v>
       </c>
       <c r="AS57" t="s" s="3">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AT57" t="n" s="39">
         <v>44468.0</v>
@@ -20196,7 +20201,7 @@
         <v>1500100.0</v>
       </c>
       <c r="AV57" t="s" s="3">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AW57" t="n" s="39">
         <v>44527.0</v>
@@ -20205,7 +20210,7 @@
         <v>1500100.0</v>
       </c>
       <c r="AY57" t="s" s="3">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AZ57" s="25"/>
       <c r="BA57" s="25"/>
@@ -20337,7 +20342,7 @@
       <c r="DM57" s="91"/>
       <c r="DN57" s="73"/>
       <c r="DO57" t="s" s="15">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="DP57" s="101"/>
       <c r="DQ57" s="31"/>
@@ -20359,7 +20364,7 @@
       <c r="EC57" s="31"/>
       <c r="ED57" s="25"/>
       <c r="EE57" t="s" s="15">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="EF57" s="31"/>
       <c r="EG57" s="15"/>
@@ -20373,17 +20378,17 @@
     </row>
     <row r="58" hidden="false">
       <c r="A58" t="s" s="25">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C58" t="s" s="3">
         <v>195</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s" s="7">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" t="s" s="11">
@@ -20583,7 +20588,7 @@
       <c r="EC58" s="31"/>
       <c r="ED58" s="25"/>
       <c r="EE58" t="s" s="15">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="EF58" s="31"/>
       <c r="EG58" s="15"/>
@@ -20597,10 +20602,10 @@
     </row>
     <row r="59" hidden="false">
       <c r="A59" t="s" s="3">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C59" t="s" s="3">
         <v>195</v>
@@ -20614,7 +20619,7 @@
         <v>260</v>
       </c>
       <c r="H59" t="s" s="13">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I59" t="s" s="15">
         <v>166</v>
@@ -20642,7 +20647,7 @@
       </c>
       <c r="W59" s="31"/>
       <c r="X59" t="s" s="15">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Y59" s="33"/>
       <c r="Z59" t="s" s="125">
@@ -20811,7 +20816,7 @@
       <c r="EC59" s="31"/>
       <c r="ED59" s="25"/>
       <c r="EE59" t="s" s="15">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="EF59" s="31"/>
       <c r="EG59" s="15"/>
@@ -20825,17 +20830,17 @@
     </row>
     <row r="60" hidden="false">
       <c r="A60" t="s" s="25">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C60" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" t="s" s="11">
@@ -21035,10 +21040,10 @@
     </row>
     <row r="61" hidden="false">
       <c r="A61" t="s" s="3">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C61" t="s" s="3">
         <v>195</v>
@@ -21056,7 +21061,7 @@
         <v>151</v>
       </c>
       <c r="H61" t="s" s="13">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I61" t="s" s="15">
         <v>413</v>
@@ -21074,7 +21079,7 @@
       <c r="P61" s="21"/>
       <c r="Q61" s="23"/>
       <c r="R61" t="s" s="15">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="S61" t="n" s="25">
         <v>0.0</v>
@@ -21136,7 +21141,7 @@
         <v>302400.0</v>
       </c>
       <c r="AP61" t="s" s="25">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AQ61" t="n" s="39">
         <v>44525.0</v>
@@ -21215,10 +21220,10 @@
         <v>44459.0</v>
       </c>
       <c r="CE61" t="s" s="97">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="CF61" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG61" t="n" s="57">
         <v>0.4</v>
@@ -21266,7 +21271,7 @@
         <v>209</v>
       </c>
       <c r="CV61" t="s" s="83">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CW61" t="n" s="119">
         <v>230000.0</v>
@@ -21305,7 +21310,7 @@
       </c>
       <c r="DN61" s="73"/>
       <c r="DO61" t="s" s="15">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="DP61" s="101"/>
       <c r="DQ61" t="s" s="31">
@@ -21331,14 +21336,14 @@
       <c r="EC61" s="31"/>
       <c r="ED61" s="25"/>
       <c r="EE61" t="s" s="15">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="EF61" s="31"/>
       <c r="EG61" s="15"/>
       <c r="EH61" s="15"/>
       <c r="EI61" s="15"/>
       <c r="EJ61" t="s" s="15">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="EK61" s="15"/>
       <c r="EL61" s="15"/>
@@ -21349,10 +21354,10 @@
     </row>
     <row r="62" hidden="false">
       <c r="A62" t="s" s="3">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C62" t="s" s="3">
         <v>195</v>
@@ -21361,7 +21366,7 @@
         <v>148</v>
       </c>
       <c r="E62" t="s" s="7">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F62" t="s" s="9">
         <v>150</v>
@@ -21370,13 +21375,13 @@
         <v>151</v>
       </c>
       <c r="H62" t="s" s="13">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I62" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J62" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" t="s" s="15">
@@ -21387,14 +21392,14 @@
         <v>156</v>
       </c>
       <c r="O62" t="s" s="103">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P62" t="s" s="17">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q62" s="23"/>
       <c r="R62" t="s" s="15">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="S62" t="n" s="25">
         <v>1.0</v>
@@ -21458,7 +21463,7 @@
         <v>1210550.0</v>
       </c>
       <c r="AP62" t="s" s="25">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AQ62" t="n" s="39">
         <v>44525.0</v>
@@ -21623,19 +21628,19 @@
         <v>151</v>
       </c>
       <c r="DO62" t="s" s="15">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="DP62" t="s" s="101">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="DQ62" t="s" s="31">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="DR62" t="s" s="65">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DS62" t="s" s="31">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="DT62" s="31"/>
       <c r="DU62" s="31"/>
@@ -21649,18 +21654,18 @@
         <v>181</v>
       </c>
       <c r="EC62" t="s" s="31">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="ED62" s="25"/>
       <c r="EE62" t="s" s="15">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="EF62" s="31"/>
       <c r="EG62" s="15"/>
       <c r="EH62" s="15"/>
       <c r="EI62" s="15"/>
       <c r="EJ62" t="s" s="15">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="EK62" s="15"/>
       <c r="EL62" s="15"/>
@@ -21671,10 +21676,10 @@
     </row>
     <row r="63" hidden="false">
       <c r="A63" t="s" s="3">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C63" t="s" s="3">
         <v>256</v>
@@ -21683,7 +21688,7 @@
         <v>176</v>
       </c>
       <c r="E63" t="s" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F63" t="s" s="9">
         <v>204</v>
@@ -21692,13 +21697,13 @@
         <v>151</v>
       </c>
       <c r="H63" t="s" s="13">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I63" t="s" s="15">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="J63" t="s" s="15">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="15"/>
@@ -21707,10 +21712,10 @@
       <c r="O63" s="103"/>
       <c r="P63" s="21"/>
       <c r="Q63" t="s" s="23">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R63" t="s" s="15">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="S63" s="25"/>
       <c r="T63" s="27"/>
@@ -21718,7 +21723,7 @@
       <c r="V63" s="11"/>
       <c r="W63" s="31"/>
       <c r="X63" t="s" s="15">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Y63" s="33"/>
       <c r="Z63" t="n" s="107">
@@ -21766,7 +21771,7 @@
         <v>2400.0</v>
       </c>
       <c r="AP63" t="s" s="25">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AQ63" t="n" s="41">
         <v>44468.0</v>
@@ -21775,14 +21780,14 @@
         <v>150080.0</v>
       </c>
       <c r="AS63" t="s" s="3">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AT63" s="25"/>
       <c r="AU63" t="n" s="25">
         <v>43200.0</v>
       </c>
       <c r="AV63" t="s" s="3">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AW63" s="25"/>
       <c r="AX63" s="25"/>
@@ -21876,7 +21881,7 @@
         <v>209</v>
       </c>
       <c r="CV63" t="s" s="83">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CW63" t="n" s="119">
         <v>230000.0</v>
@@ -21935,7 +21940,7 @@
       <c r="EC63" s="31"/>
       <c r="ED63" s="25"/>
       <c r="EE63" t="s" s="15">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="EF63" s="31"/>
       <c r="EG63" s="15"/>
@@ -21949,17 +21954,17 @@
     </row>
     <row r="64" hidden="false">
       <c r="A64" t="s" s="25">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C64" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" t="s" s="11">
@@ -22159,10 +22164,10 @@
     </row>
     <row r="65" hidden="false">
       <c r="A65" t="s" s="25">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C65" t="s" s="3">
         <v>188</v>
@@ -22369,17 +22374,17 @@
     </row>
     <row r="66" hidden="false">
       <c r="A66" t="s" s="25">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C66" t="s" s="3">
         <v>195</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" t="s" s="7">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" t="s" s="11">
@@ -22387,10 +22392,10 @@
       </c>
       <c r="H66" s="13"/>
       <c r="I66" t="s" s="15">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J66" t="s" s="15">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="15"/>
@@ -22589,7 +22594,7 @@
       <c r="EC66" s="31"/>
       <c r="ED66" s="25"/>
       <c r="EE66" t="s" s="15">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="EF66" s="31"/>
       <c r="EG66" s="15"/>
@@ -22603,10 +22608,10 @@
     </row>
     <row r="67" hidden="false">
       <c r="A67" t="s" s="3">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C67" t="s" s="3">
         <v>195</v>
@@ -22615,7 +22620,7 @@
         <v>148</v>
       </c>
       <c r="E67" t="s" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F67" t="s" s="9">
         <v>150</v>
@@ -22624,7 +22629,7 @@
         <v>151</v>
       </c>
       <c r="H67" t="s" s="13">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I67" t="s" s="15">
         <v>413</v>
@@ -22641,14 +22646,14 @@
         <v>156</v>
       </c>
       <c r="O67" t="s" s="103">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P67" t="s" s="21">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q67" s="23"/>
       <c r="R67" t="s" s="15">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="S67" t="n" s="25">
         <v>0.0</v>
@@ -22861,7 +22866,7 @@
         <v>151</v>
       </c>
       <c r="DO67" t="s" s="15">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="DP67" s="101"/>
       <c r="DQ67" s="31"/>
@@ -22877,7 +22882,7 @@
       <c r="DW67" s="31"/>
       <c r="DX67" s="25"/>
       <c r="DY67" t="s" s="31">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="DZ67" s="25"/>
       <c r="EA67" s="25"/>
@@ -22887,39 +22892,39 @@
       <c r="EC67" s="31"/>
       <c r="ED67" s="25"/>
       <c r="EE67" t="s" s="15">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="EF67" s="31"/>
       <c r="EG67" s="15"/>
       <c r="EH67" s="15"/>
       <c r="EI67" s="15"/>
       <c r="EJ67" t="s" s="15">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="EK67" t="s" s="15">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="EL67" t="s" s="15">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM67" t="s" s="15">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="EN67" s="25"/>
     </row>
     <row r="68" hidden="false">
       <c r="A68" t="s" s="25">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C68" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" t="s" s="7">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" t="s" s="11">
@@ -23121,7 +23126,7 @@
       <c r="EC68" s="31"/>
       <c r="ED68" s="25"/>
       <c r="EE68" t="s" s="15">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="EF68" s="31"/>
       <c r="EG68" s="15"/>
@@ -23135,17 +23140,17 @@
     </row>
     <row r="69" hidden="false">
       <c r="A69" t="s" s="25">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C69" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" t="s" s="11">
@@ -23335,10 +23340,10 @@
     </row>
     <row r="70" hidden="false">
       <c r="A70" t="s" s="3">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C70" t="s" s="3">
         <v>195</v>
@@ -23356,13 +23361,13 @@
         <v>151</v>
       </c>
       <c r="H70" t="s" s="13">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I70" t="s" s="15">
         <v>339</v>
       </c>
       <c r="J70" t="s" s="15">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" t="s" s="15">
@@ -23373,16 +23378,16 @@
         <v>156</v>
       </c>
       <c r="O70" t="s" s="103">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="P70" t="s" s="21">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q70" t="s" s="15">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="R70" t="s" s="15">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="S70" t="n" s="25">
         <v>0.0</v>
@@ -23395,7 +23400,7 @@
       </c>
       <c r="V70" s="11"/>
       <c r="W70" t="s" s="31">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="X70" t="s" s="15">
         <v>311</v>
@@ -23595,7 +23600,7 @@
         <v>151</v>
       </c>
       <c r="DO70" t="s" s="15">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="DP70" s="101"/>
       <c r="DQ70" s="31"/>
@@ -23621,14 +23626,14 @@
       <c r="EC70" s="31"/>
       <c r="ED70" s="25"/>
       <c r="EE70" t="s" s="15">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="EF70" s="31"/>
       <c r="EG70" s="15"/>
       <c r="EH70" s="15"/>
       <c r="EI70" s="15"/>
       <c r="EJ70" t="s" s="15">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="EK70" s="15"/>
       <c r="EL70" s="15"/>
@@ -23637,17 +23642,17 @@
     </row>
     <row r="71" hidden="false">
       <c r="A71" t="s" s="25">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C71" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" t="s" s="11">
@@ -23839,10 +23844,10 @@
     </row>
     <row r="72" hidden="false">
       <c r="A72" t="s" s="3">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C72" t="s" s="3">
         <v>241</v>
@@ -23851,7 +23856,7 @@
         <v>176</v>
       </c>
       <c r="E72" t="s" s="7">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F72" t="s" s="9">
         <v>231</v>
@@ -23875,13 +23880,13 @@
         <v>156</v>
       </c>
       <c r="O72" t="s" s="103">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="P72" t="s" s="21">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Q72" t="s" s="23">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="R72" s="15"/>
       <c r="S72" t="n" s="25">
@@ -24023,7 +24028,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ72" t="s" s="73">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CR72" t="s" s="75">
         <v>173</v>
@@ -24065,7 +24070,7 @@
       <c r="DM72" s="91"/>
       <c r="DN72" s="73"/>
       <c r="DO72" t="s" s="15">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="DP72" s="101"/>
       <c r="DQ72" s="31"/>
@@ -24097,17 +24102,17 @@
     </row>
     <row r="73" hidden="false">
       <c r="A73" t="s" s="25">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C73" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" t="s" s="7">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" t="s" s="11">
@@ -24345,10 +24350,10 @@
     </row>
     <row r="74" hidden="false">
       <c r="A74" t="s" s="3">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C74" t="s" s="3">
         <v>195</v>
@@ -24357,7 +24362,7 @@
         <v>148</v>
       </c>
       <c r="E74" t="s" s="7">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F74" t="s" s="9">
         <v>150</v>
@@ -24366,13 +24371,13 @@
         <v>151</v>
       </c>
       <c r="H74" t="s" s="13">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I74" t="s" s="15">
         <v>304</v>
       </c>
       <c r="J74" t="s" s="15">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" t="s" s="15">
@@ -24382,11 +24387,11 @@
       <c r="N74" s="17"/>
       <c r="O74" s="103"/>
       <c r="P74" t="s" s="21">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="Q74" s="15"/>
       <c r="R74" t="s" s="15">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S74" t="n" s="25">
         <v>1.0</v>
@@ -24401,7 +24406,7 @@
         <v>150</v>
       </c>
       <c r="W74" t="s" s="31">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="X74" s="15"/>
       <c r="Y74" s="33"/>
@@ -24540,7 +24545,7 @@
         <v>1.3076724E7</v>
       </c>
       <c r="CP74" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ74" t="s" s="73">
         <v>313</v>
@@ -24560,7 +24565,7 @@
       <c r="CV74" s="83"/>
       <c r="CW74" s="85"/>
       <c r="CX74" t="s" s="31">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="CY74" t="n" s="25">
         <v>7.8203134E7</v>
@@ -24591,7 +24596,7 @@
         <v>151</v>
       </c>
       <c r="DO74" t="s" s="15">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="DP74" s="101"/>
       <c r="DQ74" t="s" s="31">
@@ -24619,7 +24624,7 @@
       <c r="EC74" s="31"/>
       <c r="ED74" s="25"/>
       <c r="EE74" t="s" s="15">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="EF74" s="31"/>
       <c r="EG74" s="15"/>
@@ -24635,10 +24640,10 @@
     </row>
     <row r="75" hidden="false">
       <c r="A75" t="s" s="3">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C75" t="s" s="3">
         <v>195</v>
@@ -24647,7 +24652,7 @@
         <v>148</v>
       </c>
       <c r="E75" t="s" s="7">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F75" t="s" s="9">
         <v>150</v>
@@ -24656,7 +24661,7 @@
         <v>151</v>
       </c>
       <c r="H75" t="s" s="13">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I75" t="s" s="15">
         <v>153</v>
@@ -24670,17 +24675,17 @@
       </c>
       <c r="M75" s="15"/>
       <c r="N75" t="s" s="17">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O75" t="s" s="103">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P75" t="s" s="21">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q75" s="23"/>
       <c r="R75" t="s" s="15">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="S75" t="n" s="25">
         <v>0.0</v>
@@ -24856,7 +24861,7 @@
       <c r="CV75" s="83"/>
       <c r="CW75" s="85"/>
       <c r="CX75" t="s" s="31">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="CY75" t="n" s="25">
         <v>9151638.0</v>
@@ -24889,7 +24894,7 @@
         <v>151</v>
       </c>
       <c r="DO75" t="s" s="15">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="DP75" s="101"/>
       <c r="DQ75" t="s" s="31">
@@ -24915,14 +24920,14 @@
       <c r="EC75" s="31"/>
       <c r="ED75" s="25"/>
       <c r="EE75" t="s" s="15">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="EF75" s="31"/>
       <c r="EG75" s="15"/>
       <c r="EH75" s="15"/>
       <c r="EI75" s="15"/>
       <c r="EJ75" t="s" s="15">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="EK75" s="15"/>
       <c r="EL75" s="15"/>
@@ -24933,10 +24938,10 @@
     </row>
     <row r="76" hidden="false">
       <c r="A76" t="s" s="3">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C76" t="s" s="3">
         <v>241</v>
@@ -24962,14 +24967,14 @@
       </c>
       <c r="K76" s="3"/>
       <c r="L76" t="s" s="15">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M76" s="15"/>
       <c r="N76" s="17"/>
       <c r="O76" s="103"/>
       <c r="P76" s="21"/>
       <c r="Q76" t="s" s="23">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="R76" s="15"/>
       <c r="S76" s="25"/>
@@ -24978,7 +24983,7 @@
       <c r="V76" s="11"/>
       <c r="W76" s="31"/>
       <c r="X76" t="s" s="15">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y76" s="33"/>
       <c r="Z76" t="n" s="107">
@@ -25028,7 +25033,7 @@
         <v>38400.0</v>
       </c>
       <c r="AP76" t="s" s="3">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AQ76" s="25"/>
       <c r="AR76" s="25"/>
@@ -25167,7 +25172,7 @@
       <c r="DM76" s="91"/>
       <c r="DN76" s="73"/>
       <c r="DO76" t="s" s="15">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="DP76" s="101"/>
       <c r="DQ76" s="31"/>
@@ -25187,7 +25192,7 @@
       <c r="EC76" s="31"/>
       <c r="ED76" s="25"/>
       <c r="EE76" t="s" s="15">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="EF76" s="31"/>
       <c r="EG76" s="15"/>
@@ -25201,10 +25206,10 @@
     </row>
     <row r="77" hidden="false">
       <c r="A77" t="s" s="3">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C77" t="s" s="3">
         <v>241</v>
@@ -25213,7 +25218,7 @@
         <v>148</v>
       </c>
       <c r="E77" t="s" s="7">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F77" t="s" s="9">
         <v>150</v>
@@ -25222,13 +25227,13 @@
         <v>151</v>
       </c>
       <c r="H77" t="s" s="13">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I77" t="s" s="15">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J77" t="s" s="15">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" t="s" s="15">
@@ -25239,16 +25244,16 @@
         <v>327</v>
       </c>
       <c r="O77" t="s" s="103">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="P77" t="s" s="21">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="Q77" t="s" s="15">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="R77" t="s" s="15">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="S77" s="25"/>
       <c r="T77" t="s" s="27">
@@ -25258,7 +25263,7 @@
       <c r="V77" s="11"/>
       <c r="W77" s="31"/>
       <c r="X77" t="s" s="15">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y77" s="33"/>
       <c r="Z77" t="n" s="107">
@@ -25400,7 +25405,7 @@
       <c r="CV77" s="83"/>
       <c r="CW77" s="85"/>
       <c r="CX77" t="s" s="31">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="CY77" t="n" s="25">
         <v>8.5611818E7</v>
@@ -25433,7 +25438,7 @@
         <v>151</v>
       </c>
       <c r="DO77" t="s" s="15">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="DP77" s="101"/>
       <c r="DQ77" t="s" s="31">
@@ -25457,27 +25462,27 @@
       <c r="EC77" s="31"/>
       <c r="ED77" s="25"/>
       <c r="EE77" t="s" s="15">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="EF77" s="31"/>
       <c r="EG77" t="s" s="15">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="EH77" s="15"/>
       <c r="EI77" t="s" s="15">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="EJ77" t="s" s="15">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="EK77" t="s" s="15">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="EL77" t="s" s="15">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM77" t="s" s="15">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="EN77" t="n" s="25">
         <v>1.0</v>
@@ -25485,10 +25490,10 @@
     </row>
     <row r="78" hidden="false">
       <c r="A78" t="s" s="3">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C78" t="s" s="3">
         <v>241</v>
@@ -25497,7 +25502,7 @@
         <v>196</v>
       </c>
       <c r="E78" t="s" s="7">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F78" t="s" s="9">
         <v>231</v>
@@ -25507,10 +25512,10 @@
       </c>
       <c r="H78" s="13"/>
       <c r="I78" t="s" s="15">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J78" t="s" s="15">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" t="s" s="15">
@@ -25534,7 +25539,7 @@
       </c>
       <c r="W78" s="31"/>
       <c r="X78" t="s" s="15">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Y78" s="33"/>
       <c r="Z78" t="n" s="107">
@@ -25584,7 +25589,7 @@
         <v>212940.0</v>
       </c>
       <c r="AP78" t="s" s="3">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AQ78" t="n" s="39">
         <v>44499.0</v>
@@ -25593,7 +25598,7 @@
         <v>1500000.0</v>
       </c>
       <c r="AS78" t="s" s="25">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AT78" t="n" s="39">
         <v>44498.0</v>
@@ -25602,7 +25607,7 @@
         <v>187200.0</v>
       </c>
       <c r="AV78" t="s" s="3">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AW78" t="n" s="39">
         <v>44468.0</v>
@@ -25611,7 +25616,7 @@
         <v>1500000.0</v>
       </c>
       <c r="AY78" t="s" s="3">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AZ78" s="25"/>
       <c r="BA78" s="25"/>
@@ -25702,7 +25707,7 @@
       </c>
       <c r="CO78" s="71"/>
       <c r="CP78" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ78" t="s" s="73">
         <v>285</v>
@@ -25755,7 +25760,7 @@
       <c r="DM78" s="91"/>
       <c r="DN78" s="73"/>
       <c r="DO78" t="s" s="15">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="DP78" s="101"/>
       <c r="DQ78" s="31"/>
@@ -25775,7 +25780,7 @@
       <c r="EC78" s="31"/>
       <c r="ED78" s="25"/>
       <c r="EE78" t="s" s="15">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="EF78" s="31"/>
       <c r="EG78" s="15"/>
@@ -25789,17 +25794,17 @@
     </row>
     <row r="79" hidden="false">
       <c r="A79" t="s" s="25">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C79" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F79" s="9"/>
       <c r="G79" t="s" s="11">
@@ -26001,17 +26006,17 @@
     </row>
     <row r="80" hidden="false">
       <c r="A80" t="s" s="25">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C80" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" t="s" s="7">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F80" s="9"/>
       <c r="G80" t="s" s="11">
@@ -26203,10 +26208,10 @@
     </row>
     <row r="81" hidden="false">
       <c r="A81" t="s" s="3">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C81" t="s" s="3">
         <v>276</v>
@@ -26215,7 +26220,7 @@
         <v>196</v>
       </c>
       <c r="E81" t="s" s="7">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F81" t="s" s="9">
         <v>204</v>
@@ -26225,14 +26230,14 @@
       </c>
       <c r="H81" s="13"/>
       <c r="I81" t="s" s="15">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J81" t="s" s="15">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" t="s" s="15">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -26252,7 +26257,7 @@
       </c>
       <c r="W81" s="31"/>
       <c r="X81" t="s" s="15">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="Y81" s="33"/>
       <c r="Z81" t="n" s="107">
@@ -26439,7 +26444,7 @@
       <c r="DM81" s="91"/>
       <c r="DN81" s="73"/>
       <c r="DO81" t="s" s="15">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="DP81" s="101"/>
       <c r="DQ81" s="31"/>
@@ -26459,7 +26464,7 @@
       <c r="EC81" s="31"/>
       <c r="ED81" s="25"/>
       <c r="EE81" t="s" s="15">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="EF81" s="31"/>
       <c r="EG81" s="15"/>
@@ -26473,10 +26478,10 @@
     </row>
     <row r="82" hidden="false">
       <c r="A82" t="s" s="3">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C82" t="s" s="3">
         <v>276</v>
@@ -26485,7 +26490,7 @@
         <v>196</v>
       </c>
       <c r="E82" t="s" s="7">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F82" t="s" s="9">
         <v>231</v>
@@ -26495,14 +26500,14 @@
       </c>
       <c r="H82" s="13"/>
       <c r="I82" t="s" s="15">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J82" t="s" s="15">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" t="s" s="15">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -26522,7 +26527,7 @@
       <c r="V82" s="11"/>
       <c r="W82" s="31"/>
       <c r="X82" t="s" s="15">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y82" s="33"/>
       <c r="Z82" t="n" s="107">
@@ -26570,7 +26575,7 @@
         <v>1389600.0</v>
       </c>
       <c r="AP82" t="s" s="3">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AQ82" t="n" s="39">
         <v>44499.0</v>
@@ -26579,7 +26584,7 @@
         <v>313100.0</v>
       </c>
       <c r="AS82" t="s" s="3">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AT82" t="n" s="39">
         <v>44498.0</v>
@@ -26588,28 +26593,28 @@
         <v>1504100.0</v>
       </c>
       <c r="AV82" t="s" s="3">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AW82" s="25"/>
       <c r="AX82" t="n" s="25">
         <v>3000060.0</v>
       </c>
       <c r="AY82" t="s" s="3">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AZ82" s="25"/>
       <c r="BA82" t="n" s="25">
         <v>3476400.0</v>
       </c>
       <c r="BB82" t="s" s="3">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BC82" s="25"/>
       <c r="BD82" t="n" s="25">
         <v>1500100.0</v>
       </c>
       <c r="BE82" t="s" s="3">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BF82" s="25"/>
       <c r="BG82" t="n" s="25">
@@ -26676,7 +26681,7 @@
         <v>206</v>
       </c>
       <c r="CF82" t="s" s="25">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="CG82" t="n" s="57">
         <v>0.7</v>
@@ -26759,7 +26764,7 @@
       <c r="DM82" s="91"/>
       <c r="DN82" s="73"/>
       <c r="DO82" t="s" s="15">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="DP82" s="101"/>
       <c r="DQ82" s="31"/>
@@ -26781,14 +26786,14 @@
       <c r="EC82" s="31"/>
       <c r="ED82" s="25"/>
       <c r="EE82" t="s" s="15">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="EF82" s="31"/>
       <c r="EG82" s="15"/>
       <c r="EH82" s="15"/>
       <c r="EI82" s="15"/>
       <c r="EJ82" t="s" s="15">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="EK82" s="15"/>
       <c r="EL82" s="15"/>
@@ -26797,17 +26802,17 @@
     </row>
     <row r="83" hidden="false">
       <c r="A83" t="s" s="25">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C83" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" t="s" s="7">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F83" s="9"/>
       <c r="G83" t="s" s="11">
@@ -27031,10 +27036,10 @@
     </row>
     <row r="84" hidden="false">
       <c r="A84" t="s" s="25">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C84" t="s" s="3">
         <v>147</v>
@@ -27049,10 +27054,10 @@
       </c>
       <c r="H84" s="13"/>
       <c r="I84" t="s" s="15">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J84" t="s" s="15">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="15"/>
@@ -27269,17 +27274,17 @@
     </row>
     <row r="85" hidden="false">
       <c r="A85" t="s" s="25">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C85" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" t="s" s="7">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" t="s" s="11">
@@ -27483,17 +27488,17 @@
     </row>
     <row r="86" hidden="false">
       <c r="A86" t="s" s="25">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C86" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" t="s" s="11">
@@ -27695,17 +27700,17 @@
     </row>
     <row r="87" hidden="false">
       <c r="A87" t="s" s="25">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C87" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" t="s" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" t="s" s="11">
@@ -27716,7 +27721,7 @@
         <v>220</v>
       </c>
       <c r="J87" t="s" s="15">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="15"/>
@@ -27935,17 +27940,17 @@
     </row>
     <row r="88" hidden="false">
       <c r="A88" t="s" s="25">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C88" t="s" s="3">
         <v>256</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" t="s" s="7">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F88" s="9"/>
       <c r="G88" t="s" s="11">
@@ -28147,17 +28152,17 @@
     </row>
     <row r="89" hidden="false">
       <c r="A89" t="s" s="25">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C89" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" t="s" s="7">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F89" s="9"/>
       <c r="G89" t="s" s="11">
@@ -28381,10 +28386,10 @@
     </row>
     <row r="90" hidden="false">
       <c r="A90" t="s" s="25">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C90" t="s" s="3">
         <v>188</v>
@@ -28593,10 +28598,10 @@
     </row>
     <row r="91" hidden="false">
       <c r="A91" t="s" s="3">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C91" t="s" s="3">
         <v>195</v>
@@ -28605,7 +28610,7 @@
         <v>196</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F91" t="s" s="9">
         <v>150</v>
@@ -28614,13 +28619,13 @@
         <v>151</v>
       </c>
       <c r="H91" t="s" s="13">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="I91" t="s" s="15">
         <v>339</v>
       </c>
       <c r="J91" t="s" s="15">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="K91" t="b" s="3">
         <v>1</v>
@@ -28633,10 +28638,10 @@
       <c r="O91" s="103"/>
       <c r="P91" s="21"/>
       <c r="Q91" t="s" s="23">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="R91" t="s" s="15">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="S91" t="n" s="25">
         <v>0.0</v>
@@ -28649,10 +28654,10 @@
       </c>
       <c r="V91" s="11"/>
       <c r="W91" t="s" s="31">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="X91" t="s" s="15">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="Y91" s="33"/>
       <c r="Z91" t="n" s="107">
@@ -28702,7 +28707,7 @@
         <v>110400.0</v>
       </c>
       <c r="AP91" t="s" s="25">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AQ91" s="25"/>
       <c r="AR91" s="25"/>
@@ -28784,7 +28789,7 @@
         <v>206</v>
       </c>
       <c r="CF91" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG91" t="n" s="57">
         <v>0.6</v>
@@ -28799,7 +28804,7 @@
         <v>44742.0</v>
       </c>
       <c r="CK91" t="s" s="65">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="CL91" t="n" s="67">
         <v>0.7</v>
@@ -28869,10 +28874,10 @@
       <c r="DM91" s="91"/>
       <c r="DN91" s="73"/>
       <c r="DO91" t="s" s="15">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="DP91" t="s" s="101">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DQ91" s="31"/>
       <c r="DR91" t="s" s="65">
@@ -28897,14 +28902,14 @@
       <c r="EC91" s="31"/>
       <c r="ED91" s="25"/>
       <c r="EE91" t="s" s="15">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="EF91" s="31"/>
       <c r="EG91" s="15"/>
       <c r="EH91" s="15"/>
       <c r="EI91" s="15"/>
       <c r="EJ91" t="s" s="15">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="EK91" s="15"/>
       <c r="EL91" s="15"/>
@@ -28913,10 +28918,10 @@
     </row>
     <row r="92" hidden="false">
       <c r="A92" t="s" s="3">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C92" t="s" s="3">
         <v>256</v>
@@ -28925,7 +28930,7 @@
         <v>196</v>
       </c>
       <c r="E92" t="s" s="7">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F92" t="s" s="9">
         <v>231</v>
@@ -28934,7 +28939,7 @@
         <v>151</v>
       </c>
       <c r="H92" t="s" s="13">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I92" t="s" s="15">
         <v>243</v>
@@ -28954,11 +28959,11 @@
         <v>328</v>
       </c>
       <c r="P92" t="s" s="21">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q92" s="23"/>
       <c r="R92" t="s" s="15">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="S92" s="25"/>
       <c r="T92" s="27"/>
@@ -28966,7 +28971,7 @@
       <c r="V92" s="11"/>
       <c r="W92" s="31"/>
       <c r="X92" t="s" s="15">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="Y92" s="33"/>
       <c r="Z92" t="n" s="107">
@@ -29149,14 +29154,14 @@
       <c r="EC92" s="31"/>
       <c r="ED92" s="25"/>
       <c r="EE92" t="s" s="15">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="EF92" s="31"/>
       <c r="EG92" s="15"/>
       <c r="EH92" s="15"/>
       <c r="EI92" s="15"/>
       <c r="EJ92" t="s" s="15">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="EK92" s="15"/>
       <c r="EL92" s="15"/>
@@ -29165,17 +29170,17 @@
     </row>
     <row r="93" hidden="false">
       <c r="A93" t="s" s="25">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C93" t="s" s="3">
         <v>256</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" t="s" s="7">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F93" s="9"/>
       <c r="G93" t="s" s="11">
@@ -29381,10 +29386,10 @@
     </row>
     <row r="94" hidden="false">
       <c r="A94" t="s" s="3">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C94" t="s" s="3">
         <v>188</v>
@@ -29402,13 +29407,13 @@
         <v>151</v>
       </c>
       <c r="H94" t="s" s="13">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="I94" t="s" s="15">
         <v>220</v>
       </c>
       <c r="J94" t="s" s="15">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="K94" t="b" s="3">
         <v>1</v>
@@ -29476,7 +29481,7 @@
         <v>38400.0</v>
       </c>
       <c r="AP94" t="s" s="25">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AQ94" t="n" s="39">
         <v>44529.0</v>
@@ -29623,7 +29628,7 @@
       <c r="DM94" s="91"/>
       <c r="DN94" s="73"/>
       <c r="DO94" t="s" s="15">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="DP94" s="101"/>
       <c r="DQ94" s="31"/>
@@ -29657,17 +29662,17 @@
     </row>
     <row r="95" hidden="false">
       <c r="A95" t="s" s="25">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C95" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" t="s" s="7">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" t="s" s="11">
@@ -29861,10 +29866,10 @@
     </row>
     <row r="96" hidden="false">
       <c r="A96" t="s" s="3">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C96" t="s" s="3">
         <v>188</v>
@@ -29882,13 +29887,13 @@
         <v>151</v>
       </c>
       <c r="H96" t="s" s="13">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="I96" t="s" s="15">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J96" t="s" s="15">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" t="s" s="15">
@@ -29902,11 +29907,11 @@
         <v>328</v>
       </c>
       <c r="P96" t="s" s="21">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="Q96" s="13"/>
       <c r="R96" t="s" s="15">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="S96" t="n" s="25">
         <v>1.0</v>
@@ -29920,7 +29925,7 @@
       </c>
       <c r="W96" s="31"/>
       <c r="X96" t="s" s="15">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="Y96" s="33"/>
       <c r="Z96" t="n" s="107">
@@ -30047,7 +30052,7 @@
         <v>44772.0</v>
       </c>
       <c r="CK96" t="s" s="65">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CL96" t="n" s="67">
         <v>0.7</v>
@@ -30111,7 +30116,7 @@
       <c r="DM96" s="91"/>
       <c r="DN96" s="73"/>
       <c r="DO96" t="s" s="15">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="DP96" s="101"/>
       <c r="DQ96" t="s" s="31">
@@ -30137,14 +30142,14 @@
       <c r="EC96" s="31"/>
       <c r="ED96" s="25"/>
       <c r="EE96" t="s" s="15">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="EF96" s="31"/>
       <c r="EG96" s="15"/>
       <c r="EH96" s="15"/>
       <c r="EI96" s="15"/>
       <c r="EJ96" t="s" s="15">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="EK96" s="15"/>
       <c r="EL96" s="15"/>
@@ -30155,10 +30160,10 @@
     </row>
     <row r="97" hidden="false">
       <c r="A97" t="s" s="3">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C97" t="s" s="3">
         <v>256</v>
@@ -30188,13 +30193,13 @@
       </c>
       <c r="M97" s="15"/>
       <c r="N97" t="s" s="17">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="O97" t="s" s="103">
         <v>328</v>
       </c>
       <c r="P97" t="s" s="21">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="Q97" s="23"/>
       <c r="R97" s="15"/>
@@ -30210,7 +30215,7 @@
       </c>
       <c r="W97" s="31"/>
       <c r="X97" t="s" s="15">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="Y97" s="33"/>
       <c r="Z97" t="n" s="107">
@@ -30258,7 +30263,7 @@
         <v>616820.0</v>
       </c>
       <c r="AP97" t="s" s="3">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AQ97" t="n" s="39">
         <v>44488.0</v>
@@ -30409,7 +30414,7 @@
         <v>151</v>
       </c>
       <c r="DO97" t="s" s="15">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="DP97" s="101"/>
       <c r="DQ97" s="31"/>
@@ -30429,7 +30434,7 @@
       <c r="EC97" s="31"/>
       <c r="ED97" s="25"/>
       <c r="EE97" t="s" s="15">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="EF97" s="31"/>
       <c r="EG97" s="15"/>
@@ -30443,17 +30448,17 @@
     </row>
     <row r="98" hidden="false">
       <c r="A98" t="s" s="25">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C98" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" t="s" s="7">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F98" s="9"/>
       <c r="G98" t="s" s="11">
@@ -30645,17 +30650,17 @@
     </row>
     <row r="99" hidden="false">
       <c r="A99" t="s" s="25">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C99" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" t="s" s="7">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F99" s="9"/>
       <c r="G99" t="s" s="11">
@@ -30871,10 +30876,10 @@
     </row>
     <row r="100" hidden="false">
       <c r="A100" t="s" s="3">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C100" t="s" s="3">
         <v>195</v>
@@ -30883,7 +30888,7 @@
         <v>196</v>
       </c>
       <c r="E100" t="s" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F100" t="s" s="9">
         <v>231</v>
@@ -30892,7 +30897,7 @@
         <v>151</v>
       </c>
       <c r="H100" t="s" s="13">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="I100" t="s" s="15">
         <v>413</v>
@@ -30909,10 +30914,10 @@
       <c r="O100" s="103"/>
       <c r="P100" s="21"/>
       <c r="Q100" t="s" s="23">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="R100" t="s" s="15">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="S100" t="n" s="25">
         <v>0.0</v>
@@ -30924,7 +30929,7 @@
       <c r="V100" s="11"/>
       <c r="W100" s="31"/>
       <c r="X100" t="s" s="15">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="Y100" s="33"/>
       <c r="Z100" t="n" s="107">
@@ -31127,7 +31132,7 @@
         <v>151</v>
       </c>
       <c r="DO100" t="s" s="15">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="DP100" s="101"/>
       <c r="DQ100" s="31"/>
@@ -31151,7 +31156,7 @@
       <c r="EC100" s="31"/>
       <c r="ED100" s="25"/>
       <c r="EE100" t="s" s="15">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="EF100" s="31"/>
       <c r="EG100" s="15"/>
@@ -31167,10 +31172,10 @@
     </row>
     <row r="101" hidden="false">
       <c r="A101" t="s" s="3">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C101" t="s" s="3">
         <v>195</v>
@@ -31179,7 +31184,7 @@
         <v>148</v>
       </c>
       <c r="E101" t="s" s="7">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F101" t="s" s="9">
         <v>150</v>
@@ -31188,7 +31193,7 @@
         <v>151</v>
       </c>
       <c r="H101" t="s" s="13">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="I101" t="s" s="15">
         <v>413</v>
@@ -31205,14 +31210,14 @@
         <v>156</v>
       </c>
       <c r="O101" t="s" s="103">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="P101" t="s" s="21">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="Q101" s="23"/>
       <c r="R101" t="s" s="15">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="S101" t="n" s="25">
         <v>0.0</v>
@@ -31225,7 +31230,7 @@
       </c>
       <c r="V101" s="11"/>
       <c r="W101" t="s" s="31">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="X101" t="s" s="15">
         <v>311</v>
@@ -31394,7 +31399,7 @@
       <c r="CV101" s="83"/>
       <c r="CW101" s="85"/>
       <c r="CX101" t="s" s="31">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="CY101" t="n" s="25">
         <v>5.5072007E7</v>
@@ -31425,7 +31430,7 @@
         <v>151</v>
       </c>
       <c r="DO101" t="s" s="15">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="DP101" s="101"/>
       <c r="DQ101" s="31"/>
@@ -31441,7 +31446,7 @@
       <c r="DW101" s="31"/>
       <c r="DX101" s="25"/>
       <c r="DY101" t="s" s="31">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="DZ101" s="25"/>
       <c r="EA101" s="25"/>
@@ -31451,7 +31456,7 @@
       <c r="EC101" s="31"/>
       <c r="ED101" s="25"/>
       <c r="EE101" t="s" s="15">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="EF101" s="31"/>
       <c r="EG101" s="15"/>
@@ -31469,17 +31474,17 @@
     </row>
     <row r="102" hidden="false">
       <c r="A102" t="s" s="25">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C102" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" t="s" s="7">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F102" s="9"/>
       <c r="G102" t="s" s="11">
@@ -31487,7 +31492,7 @@
       </c>
       <c r="H102" s="13"/>
       <c r="I102" t="s" s="15">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J102" t="s" s="15">
         <v>351</v>
@@ -31683,43 +31688,43 @@
       <c r="EC102" s="31"/>
       <c r="ED102" s="25"/>
       <c r="EE102" t="s" s="3">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="EF102" s="31"/>
       <c r="EG102" t="s" s="15">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="EH102" t="n" s="39">
         <v>44312.0</v>
       </c>
       <c r="EI102" t="s" s="15">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="EJ102" t="s" s="3">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="EK102" s="3"/>
       <c r="EL102" t="s" s="3">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM102" t="s" s="3">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="EN102" s="25"/>
     </row>
     <row r="103" hidden="false">
       <c r="A103" t="s" s="25">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C103" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" t="s" s="11">
@@ -31919,17 +31924,17 @@
     </row>
     <row r="104" hidden="false">
       <c r="A104" t="s" s="25">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C104" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" t="s" s="7">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F104" s="9"/>
       <c r="G104" t="s" s="11">
@@ -32119,10 +32124,10 @@
     </row>
     <row r="105" hidden="false">
       <c r="A105" t="s" s="3">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C105" t="s" s="3">
         <v>195</v>
@@ -32140,13 +32145,13 @@
         <v>151</v>
       </c>
       <c r="H105" t="s" s="13">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I105" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J105" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" t="s" s="15">
@@ -32157,16 +32162,16 @@
         <v>156</v>
       </c>
       <c r="O105" t="s" s="103">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="P105" t="s" s="21">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="Q105" t="s" s="23">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="R105" t="s" s="15">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="S105" t="n" s="25">
         <v>0.0</v>
@@ -32180,7 +32185,7 @@
       <c r="V105" s="11"/>
       <c r="W105" s="31"/>
       <c r="X105" t="s" s="15">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="Y105" s="33"/>
       <c r="Z105" t="n" s="107">
@@ -32298,7 +32303,7 @@
         <v>206</v>
       </c>
       <c r="CF105" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG105" t="n" s="57">
         <v>0.5</v>
@@ -32377,7 +32382,7 @@
         <v>151</v>
       </c>
       <c r="DO105" t="s" s="15">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="DP105" s="101"/>
       <c r="DQ105" t="s" s="31">
@@ -32399,7 +32404,7 @@
       <c r="DW105" s="31"/>
       <c r="DX105" s="25"/>
       <c r="DY105" t="s" s="31">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="DZ105" s="25"/>
       <c r="EA105" s="25"/>
@@ -32409,27 +32414,27 @@
       <c r="EC105" s="31"/>
       <c r="ED105" s="25"/>
       <c r="EE105" t="s" s="15">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="EF105" s="31"/>
       <c r="EG105" t="s" s="15">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="EH105" s="15"/>
       <c r="EI105" t="s" s="15">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="EJ105" t="s" s="15">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="EK105" t="s" s="15">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="EL105" t="s" s="15">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM105" t="s" s="15">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="EN105" t="n" s="25">
         <v>2.0</v>
@@ -32437,10 +32442,10 @@
     </row>
     <row r="106" hidden="false">
       <c r="A106" t="s" s="3">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C106" t="s" s="3">
         <v>195</v>
@@ -32449,7 +32454,7 @@
         <v>148</v>
       </c>
       <c r="E106" t="s" s="7">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F106" t="s" s="9">
         <v>150</v>
@@ -32458,7 +32463,7 @@
         <v>151</v>
       </c>
       <c r="H106" t="s" s="13">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I106" t="s" s="15">
         <v>413</v>
@@ -32475,7 +32480,7 @@
       <c r="O106" s="103"/>
       <c r="P106" s="21"/>
       <c r="Q106" t="s" s="23">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="R106" s="15"/>
       <c r="S106" t="n" s="25">
@@ -32538,7 +32543,7 @@
         <v>119040.0</v>
       </c>
       <c r="AP106" t="s" s="3">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AQ106" s="25"/>
       <c r="AR106" s="25"/>
@@ -32648,7 +32653,7 @@
         <v>0.0</v>
       </c>
       <c r="CP106" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ106" t="s" s="73">
         <v>172</v>
@@ -32697,7 +32702,7 @@
         <v>151</v>
       </c>
       <c r="DO106" t="s" s="15">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="DP106" s="101"/>
       <c r="DQ106" t="s" s="31">
@@ -32713,7 +32718,7 @@
       <c r="DW106" s="31"/>
       <c r="DX106" s="25"/>
       <c r="DY106" t="s" s="31">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="DZ106" s="25"/>
       <c r="EA106" s="25"/>
@@ -32723,14 +32728,14 @@
       <c r="EC106" s="31"/>
       <c r="ED106" s="25"/>
       <c r="EE106" t="s" s="15">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="EF106" s="31"/>
       <c r="EG106" s="15"/>
       <c r="EH106" s="15"/>
       <c r="EI106" s="15"/>
       <c r="EJ106" t="s" s="15">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="EK106" s="15"/>
       <c r="EL106" s="15"/>
@@ -32741,17 +32746,17 @@
     </row>
     <row r="107" hidden="false">
       <c r="A107" t="s" s="25">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C107" t="s" s="3">
         <v>256</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" t="s" s="7">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F107" s="9"/>
       <c r="G107" t="s" s="11">
@@ -32975,10 +32980,10 @@
     </row>
     <row r="108" hidden="false">
       <c r="A108" t="s" s="3">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C108" t="s" s="3">
         <v>276</v>
@@ -32987,7 +32992,7 @@
         <v>176</v>
       </c>
       <c r="E108" t="s" s="7">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F108" t="s" s="9">
         <v>204</v>
@@ -32996,10 +33001,10 @@
         <v>151</v>
       </c>
       <c r="H108" t="s" s="13">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="I108" t="s" s="15">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J108" t="s" s="15">
         <v>390</v>
@@ -33016,10 +33021,10 @@
         <v>328</v>
       </c>
       <c r="P108" t="s" s="21">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Q108" t="s" s="23">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="R108" s="15"/>
       <c r="S108" s="25"/>
@@ -33030,7 +33035,7 @@
       <c r="V108" s="11"/>
       <c r="W108" s="31"/>
       <c r="X108" t="s" s="15">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="Y108" s="33"/>
       <c r="Z108" t="n" s="107">
@@ -33145,7 +33150,7 @@
         <v>150</v>
       </c>
       <c r="CC108" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD108" t="n" s="53">
         <v>44614.0</v>
@@ -33227,7 +33232,7 @@
       <c r="DM108" s="91"/>
       <c r="DN108" s="73"/>
       <c r="DO108" t="s" s="15">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="DP108" s="101"/>
       <c r="DQ108" s="31"/>
@@ -33249,7 +33254,7 @@
       <c r="EC108" s="31"/>
       <c r="ED108" s="25"/>
       <c r="EE108" t="s" s="15">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="EF108" s="31"/>
       <c r="EG108" s="15"/>
@@ -33263,10 +33268,10 @@
     </row>
     <row r="109" hidden="false">
       <c r="A109" t="s" s="3">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C109" t="s" s="3">
         <v>195</v>
@@ -33275,7 +33280,7 @@
         <v>148</v>
       </c>
       <c r="E109" t="s" s="7">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F109" t="s" s="9">
         <v>150</v>
@@ -33285,7 +33290,7 @@
       </c>
       <c r="H109" s="13"/>
       <c r="I109" t="s" s="15">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J109" t="s" s="15">
         <v>305</v>
@@ -33299,16 +33304,16 @@
         <v>156</v>
       </c>
       <c r="O109" t="s" s="103">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="P109" t="s" s="21">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="Q109" t="s" s="15">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="R109" t="s" s="15">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="S109" t="n" s="25">
         <v>0.0</v>
@@ -33321,7 +33326,7 @@
       </c>
       <c r="V109" s="11"/>
       <c r="W109" t="s" s="31">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="X109" t="s" s="15">
         <v>311</v>
@@ -33470,7 +33475,7 @@
         <v>1.4140925E7</v>
       </c>
       <c r="CP109" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ109" t="s" s="73">
         <v>313</v>
@@ -33521,7 +33526,7 @@
         <v>151</v>
       </c>
       <c r="DO109" t="s" s="15">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="DP109" s="101"/>
       <c r="DQ109" t="s" s="31">
@@ -33549,7 +33554,7 @@
       <c r="EC109" s="31"/>
       <c r="ED109" s="25"/>
       <c r="EE109" t="s" s="15">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="EF109" s="31"/>
       <c r="EG109" s="15"/>
@@ -33565,17 +33570,17 @@
     </row>
     <row r="110" hidden="false">
       <c r="A110" t="s" s="25">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C110" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" t="s" s="11">
@@ -33767,10 +33772,10 @@
     </row>
     <row r="111" hidden="false">
       <c r="A111" t="s" s="3">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C111" t="s" s="3">
         <v>256</v>
@@ -33779,7 +33784,7 @@
         <v>176</v>
       </c>
       <c r="E111" t="s" s="7">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F111" t="s" s="9">
         <v>231</v>
@@ -33808,7 +33813,7 @@
       <c r="V111" s="11"/>
       <c r="W111" s="31"/>
       <c r="X111" t="s" s="15">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Y111" s="33"/>
       <c r="Z111" t="s" s="125">
@@ -33967,7 +33972,7 @@
       <c r="EC111" s="31"/>
       <c r="ED111" s="25"/>
       <c r="EE111" t="s" s="15">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="EF111" s="31"/>
       <c r="EG111" s="15"/>
@@ -33981,10 +33986,10 @@
     </row>
     <row r="112" hidden="false">
       <c r="A112" t="s" s="3">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C112" t="s" s="3">
         <v>195</v>
@@ -33993,7 +33998,7 @@
         <v>196</v>
       </c>
       <c r="E112" t="s" s="7">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F112" t="s" s="9">
         <v>150</v>
@@ -34002,7 +34007,7 @@
         <v>151</v>
       </c>
       <c r="H112" t="s" s="13">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="I112" t="s" s="15">
         <v>413</v>
@@ -34015,22 +34020,22 @@
         <v>227</v>
       </c>
       <c r="M112" t="s" s="31">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="N112" t="s" s="17">
         <v>156</v>
       </c>
       <c r="O112" t="s" s="103">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P112" t="s" s="21">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="Q112" t="s" s="23">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="R112" t="s" s="15">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="S112" t="n" s="25">
         <v>1.0</v>
@@ -34046,7 +34051,7 @@
       </c>
       <c r="W112" s="31"/>
       <c r="X112" t="s" s="15">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="Y112" s="33"/>
       <c r="Z112" t="n" s="107">
@@ -34178,7 +34183,7 @@
         <v>206</v>
       </c>
       <c r="CF112" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG112" t="n" s="57">
         <v>0.664</v>
@@ -34193,7 +34198,7 @@
         <v>45291.0</v>
       </c>
       <c r="CK112" t="s" s="65">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="CL112" t="n" s="67">
         <v>0.66</v>
@@ -34228,7 +34233,7 @@
       <c r="CV112" s="83"/>
       <c r="CW112" s="85"/>
       <c r="CX112" t="s" s="31">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="CY112" t="n" s="25">
         <v>8.6083834E7</v>
@@ -34261,10 +34266,10 @@
       <c r="DM112" s="91"/>
       <c r="DN112" s="73"/>
       <c r="DO112" t="s" s="15">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="DP112" t="s" s="101">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="DQ112" s="31"/>
       <c r="DR112" t="s" s="65">
@@ -34283,7 +34288,7 @@
       </c>
       <c r="DX112" s="25"/>
       <c r="DY112" t="s" s="31">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="DZ112" s="25"/>
       <c r="EA112" s="25"/>
@@ -34293,7 +34298,7 @@
       <c r="EC112" s="31"/>
       <c r="ED112" s="25"/>
       <c r="EE112" t="s" s="15">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="EF112" s="31"/>
       <c r="EG112" s="15"/>
@@ -34309,17 +34314,17 @@
     </row>
     <row r="113" hidden="false">
       <c r="A113" t="s" s="25">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C113" t="s" s="3">
         <v>195</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" t="s" s="7">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F113" s="9"/>
       <c r="G113" t="s" s="11">
@@ -34327,10 +34332,10 @@
       </c>
       <c r="H113" s="13"/>
       <c r="I113" t="s" s="15">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J113" t="s" s="15">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="15"/>
@@ -34547,17 +34552,17 @@
     </row>
     <row r="114" hidden="false">
       <c r="A114" t="s" s="25">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C114" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" t="s" s="7">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F114" s="9"/>
       <c r="G114" t="s" s="11">
@@ -34763,7 +34768,7 @@
       <c r="EC114" s="31"/>
       <c r="ED114" s="25"/>
       <c r="EE114" t="s" s="15">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="EF114" s="31"/>
       <c r="EG114" s="15"/>
@@ -34777,10 +34782,10 @@
     </row>
     <row r="115" hidden="false">
       <c r="A115" t="s" s="3">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C115" t="s" s="3">
         <v>256</v>
@@ -34789,7 +34794,7 @@
         <v>196</v>
       </c>
       <c r="E115" t="s" s="7">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F115" t="s" s="9">
         <v>231</v>
@@ -34818,7 +34823,7 @@
       <c r="V115" s="11"/>
       <c r="W115" s="31"/>
       <c r="X115" t="s" s="15">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="Y115" s="33"/>
       <c r="Z115" t="s" s="125">
@@ -34965,7 +34970,7 @@
       <c r="DM115" s="91"/>
       <c r="DN115" s="73"/>
       <c r="DO115" t="s" s="15">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="DP115" s="101"/>
       <c r="DQ115" s="31"/>
@@ -34987,7 +34992,7 @@
       <c r="EC115" s="31"/>
       <c r="ED115" s="25"/>
       <c r="EE115" t="s" s="15">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="EF115" s="31"/>
       <c r="EG115" s="15"/>
@@ -35001,10 +35006,10 @@
     </row>
     <row r="116" hidden="false">
       <c r="A116" t="s" s="3">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C116" t="s" s="3">
         <v>188</v>
@@ -35022,13 +35027,13 @@
         <v>151</v>
       </c>
       <c r="H116" t="s" s="13">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="I116" t="s" s="15">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J116" t="s" s="15">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" t="s" s="15">
@@ -35039,7 +35044,7 @@
       <c r="O116" s="103"/>
       <c r="P116" s="21"/>
       <c r="Q116" t="s" s="23">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="R116" s="15"/>
       <c r="S116" s="25"/>
@@ -35048,7 +35053,7 @@
       <c r="V116" s="11"/>
       <c r="W116" s="31"/>
       <c r="X116" t="s" s="15">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="Y116" s="33"/>
       <c r="Z116" t="n" s="107">
@@ -35098,7 +35103,7 @@
         <v>50310.0</v>
       </c>
       <c r="AP116" t="s" s="3">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AQ116" t="n" s="39">
         <v>44468.0</v>
@@ -35107,7 +35112,7 @@
         <v>50310.0</v>
       </c>
       <c r="AS116" t="s" s="3">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="AT116" t="n" s="41">
         <v>44468.0</v>
@@ -35116,7 +35121,7 @@
         <v>45600.0</v>
       </c>
       <c r="AV116" t="s" s="3">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AW116" t="n" s="39">
         <v>44438.0</v>
@@ -35125,7 +35130,7 @@
         <v>151200.0</v>
       </c>
       <c r="AY116" t="s" s="3">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="AZ116" t="n" s="41">
         <v>44517.0</v>
@@ -35134,7 +35139,7 @@
         <v>151200.0</v>
       </c>
       <c r="BB116" t="s" s="3">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="BC116" s="25"/>
       <c r="BD116" s="25"/>
@@ -35259,7 +35264,7 @@
       <c r="DM116" s="91"/>
       <c r="DN116" s="73"/>
       <c r="DO116" t="s" s="15">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="DP116" s="101"/>
       <c r="DQ116" s="31"/>
@@ -35279,14 +35284,14 @@
       <c r="EC116" s="31"/>
       <c r="ED116" s="25"/>
       <c r="EE116" t="s" s="15">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="EF116" s="31"/>
       <c r="EG116" s="15"/>
       <c r="EH116" s="15"/>
       <c r="EI116" s="15"/>
       <c r="EJ116" t="s" s="15">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="EK116" s="15"/>
       <c r="EL116" s="15"/>
@@ -35296,7 +35301,7 @@
     <row r="117" hidden="false">
       <c r="A117" s="25"/>
       <c r="B117" t="s" s="5">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C117" t="s" s="3">
         <v>188</v>
@@ -35481,10 +35486,10 @@
     </row>
     <row r="118" hidden="false">
       <c r="A118" t="s" s="3">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C118" t="s" s="3">
         <v>256</v>
@@ -35493,7 +35498,7 @@
         <v>196</v>
       </c>
       <c r="E118" t="s" s="7">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F118" t="s" s="9">
         <v>204</v>
@@ -35578,7 +35583,7 @@
         <v>100620.0</v>
       </c>
       <c r="AP118" t="s" s="25">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AQ118" t="n" s="39">
         <v>44468.0</v>
@@ -35587,7 +35592,7 @@
         <v>48000.0</v>
       </c>
       <c r="AS118" t="s" s="3">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AT118" s="25"/>
       <c r="AU118" s="25"/>
@@ -35661,7 +35666,7 @@
         <v>44233.0</v>
       </c>
       <c r="CE118" t="s" s="73">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="CF118" s="25"/>
       <c r="CG118" t="n" s="57">
@@ -35733,7 +35738,7 @@
       <c r="DM118" s="91"/>
       <c r="DN118" s="73"/>
       <c r="DO118" t="s" s="15">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="DP118" s="101"/>
       <c r="DQ118" s="31"/>
@@ -35753,7 +35758,7 @@
       <c r="EC118" s="31"/>
       <c r="ED118" s="25"/>
       <c r="EE118" t="s" s="15">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="EF118" s="31"/>
       <c r="EG118" s="15"/>
@@ -35767,17 +35772,17 @@
     </row>
     <row r="119" hidden="false">
       <c r="A119" t="s" s="25">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C119" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" t="s" s="7">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F119" s="9"/>
       <c r="G119" t="s" s="11">
@@ -36005,10 +36010,10 @@
     </row>
     <row r="120" hidden="false">
       <c r="A120" t="s" s="3">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C120" t="s" s="3">
         <v>147</v>
@@ -36017,7 +36022,7 @@
         <v>196</v>
       </c>
       <c r="E120" t="s" s="7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F120" t="s" s="9">
         <v>204</v>
@@ -36026,7 +36031,7 @@
         <v>151</v>
       </c>
       <c r="H120" t="s" s="13">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I120" t="s" s="15">
         <v>369</v>
@@ -36044,7 +36049,7 @@
       <c r="P120" s="21"/>
       <c r="Q120" s="23"/>
       <c r="R120" t="s" s="15">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="S120" s="25"/>
       <c r="T120" s="27"/>
@@ -36255,10 +36260,10 @@
     </row>
     <row r="121" hidden="false">
       <c r="A121" t="s" s="3">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C121" t="s" s="3">
         <v>195</v>
@@ -36267,7 +36272,7 @@
         <v>148</v>
       </c>
       <c r="E121" t="s" s="7">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F121" t="s" s="9">
         <v>150</v>
@@ -36277,10 +36282,10 @@
       </c>
       <c r="H121" s="13"/>
       <c r="I121" t="s" s="15">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="J121" t="s" s="15">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" t="s" s="15">
@@ -36304,7 +36309,7 @@
       </c>
       <c r="W121" s="31"/>
       <c r="X121" t="s" s="15">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Y121" s="33"/>
       <c r="Z121" t="n" s="107">
@@ -36430,7 +36435,7 @@
         <v>206</v>
       </c>
       <c r="CF121" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG121" t="n" s="57">
         <v>0.54</v>
@@ -36463,7 +36468,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ121" t="s" s="73">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CR121" t="s" s="75">
         <v>173</v>
@@ -36511,7 +36516,7 @@
         <v>151</v>
       </c>
       <c r="DO121" t="s" s="15">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="DP121" s="101"/>
       <c r="DQ121" s="31"/>
@@ -36533,14 +36538,14 @@
       <c r="EC121" s="31"/>
       <c r="ED121" s="25"/>
       <c r="EE121" t="s" s="15">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="EF121" s="31"/>
       <c r="EG121" s="15"/>
       <c r="EH121" s="15"/>
       <c r="EI121" s="15"/>
       <c r="EJ121" t="s" s="15">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="EK121" s="15"/>
       <c r="EL121" s="15"/>
@@ -36549,10 +36554,10 @@
     </row>
     <row r="122" hidden="false">
       <c r="A122" t="s" s="3">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C122" t="s" s="3">
         <v>276</v>
@@ -36570,13 +36575,13 @@
         <v>151</v>
       </c>
       <c r="H122" t="s" s="13">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="I122" t="s" s="15">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J122" t="s" s="15">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" t="s" s="15">
@@ -36588,7 +36593,7 @@
       <c r="P122" s="21"/>
       <c r="Q122" s="23"/>
       <c r="R122" t="s" s="15">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="S122" t="n" s="25">
         <v>1.0</v>
@@ -36604,7 +36609,7 @@
       </c>
       <c r="W122" s="31"/>
       <c r="X122" t="s" s="15">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="Y122" s="33"/>
       <c r="Z122" t="s" s="125">
@@ -36781,7 +36786,7 @@
       </c>
       <c r="DP122" s="101"/>
       <c r="DQ122" t="s" s="31">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="DR122" s="65"/>
       <c r="DS122" t="s" s="31">
@@ -36803,14 +36808,14 @@
       <c r="EC122" s="31"/>
       <c r="ED122" s="25"/>
       <c r="EE122" t="s" s="15">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="EF122" s="31"/>
       <c r="EG122" s="15"/>
       <c r="EH122" s="15"/>
       <c r="EI122" s="15"/>
       <c r="EJ122" t="s" s="15">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="EK122" s="15"/>
       <c r="EL122" s="15"/>
@@ -36819,17 +36824,17 @@
     </row>
     <row r="123" hidden="false">
       <c r="A123" t="s" s="25">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C123" t="s" s="3">
         <v>195</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" t="s" s="7">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F123" s="9"/>
       <c r="G123" t="s" s="11">
@@ -36837,10 +36842,10 @@
       </c>
       <c r="H123" s="13"/>
       <c r="I123" t="s" s="15">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J123" t="s" s="15">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="15"/>
@@ -37061,10 +37066,10 @@
     </row>
     <row r="124" hidden="false">
       <c r="A124" t="s" s="25">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C124" t="s" s="3">
         <v>256</v>
@@ -37285,10 +37290,10 @@
     </row>
     <row r="125" hidden="false">
       <c r="A125" t="s" s="3">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C125" t="s" s="3">
         <v>276</v>
@@ -37306,7 +37311,7 @@
         <v>151</v>
       </c>
       <c r="H125" t="s" s="13">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="I125" t="s" s="15">
         <v>225</v>
@@ -37330,7 +37335,7 @@
       <c r="V125" s="11"/>
       <c r="W125" s="31"/>
       <c r="X125" t="s" s="15">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Y125" s="33"/>
       <c r="Z125" t="n" s="107">
@@ -37446,7 +37451,7 @@
         <v>0.0</v>
       </c>
       <c r="CF125" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG125" t="n" s="57">
         <v>1.0</v>
@@ -37474,7 +37479,7 @@
       </c>
       <c r="CO125" s="71"/>
       <c r="CP125" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ125" t="s" s="73">
         <v>285</v>
@@ -37529,7 +37534,7 @@
         <v>151</v>
       </c>
       <c r="DO125" t="s" s="15">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="DP125" s="101"/>
       <c r="DQ125" s="31"/>
@@ -37549,7 +37554,7 @@
       <c r="EC125" s="31"/>
       <c r="ED125" s="25"/>
       <c r="EE125" t="s" s="15">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="EF125" s="31"/>
       <c r="EG125" s="15"/>
@@ -37563,17 +37568,17 @@
     </row>
     <row r="126" hidden="false">
       <c r="A126" t="s" s="25">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C126" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" t="s" s="7">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F126" s="9"/>
       <c r="G126" t="s" s="11">
@@ -37763,17 +37768,17 @@
     </row>
     <row r="127" hidden="false">
       <c r="A127" t="s" s="25">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C127" t="s" s="3">
         <v>256</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" t="s" s="7">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F127" s="9"/>
       <c r="G127" t="s" s="11">
@@ -37965,10 +37970,10 @@
     </row>
     <row r="128" hidden="false">
       <c r="A128" t="s" s="3">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C128" t="s" s="3">
         <v>241</v>
@@ -37987,10 +37992,10 @@
       </c>
       <c r="H128" s="13"/>
       <c r="I128" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J128" t="s" s="15">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K128" s="3"/>
       <c r="L128" t="s" s="15">
@@ -38201,12 +38206,12 @@
       <c r="DM128" s="91"/>
       <c r="DN128" s="73"/>
       <c r="DO128" t="s" s="15">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="DP128" s="101"/>
       <c r="DQ128" s="31"/>
       <c r="DR128" t="s" s="65">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DS128" s="31"/>
       <c r="DT128" s="31"/>
@@ -38223,7 +38228,7 @@
       <c r="EC128" s="31"/>
       <c r="ED128" s="25"/>
       <c r="EE128" t="s" s="15">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="EF128" s="31"/>
       <c r="EG128" s="15"/>
@@ -38237,10 +38242,10 @@
     </row>
     <row r="129" hidden="false">
       <c r="A129" t="s" s="3">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C129" t="s" s="3">
         <v>195</v>
@@ -38249,7 +38254,7 @@
         <v>148</v>
       </c>
       <c r="E129" t="s" s="7">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F129" t="s" s="9">
         <v>150</v>
@@ -38258,13 +38263,13 @@
         <v>151</v>
       </c>
       <c r="H129" t="s" s="13">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I129" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J129" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K129" s="3"/>
       <c r="L129" t="s" s="15">
@@ -38272,17 +38277,17 @@
       </c>
       <c r="M129" s="15"/>
       <c r="N129" t="s" s="17">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="O129" t="s" s="103">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="P129" t="s" s="21">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q129" s="23"/>
       <c r="R129" t="s" s="15">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="S129" t="n" s="25">
         <v>0.0</v>
@@ -38295,10 +38300,10 @@
       </c>
       <c r="V129" s="11"/>
       <c r="W129" t="s" s="31">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="X129" t="s" s="15">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="Y129" s="33"/>
       <c r="Z129" t="n" s="107">
@@ -38468,7 +38473,7 @@
       <c r="CV129" s="83"/>
       <c r="CW129" s="85"/>
       <c r="CX129" t="s" s="31">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="CY129" t="n" s="25">
         <v>2.2620329E8</v>
@@ -38507,17 +38512,17 @@
         <v>151</v>
       </c>
       <c r="DO129" t="s" s="15">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="DP129" s="101"/>
       <c r="DQ129" t="s" s="31">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="DR129" t="s" s="65">
         <v>421</v>
       </c>
       <c r="DS129" t="s" s="31">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="DT129" t="s" s="31">
         <v>213</v>
@@ -38529,7 +38534,7 @@
       <c r="DW129" s="31"/>
       <c r="DX129" s="25"/>
       <c r="DY129" t="s" s="31">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="DZ129" s="25"/>
       <c r="EA129" s="25"/>
@@ -38539,7 +38544,7 @@
       <c r="EC129" s="31"/>
       <c r="ED129" s="25"/>
       <c r="EE129" t="s" s="15">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="EF129" s="31"/>
       <c r="EG129" s="15"/>
@@ -38557,10 +38562,10 @@
     </row>
     <row r="130" hidden="false">
       <c r="A130" t="s" s="3">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C130" t="s" s="3">
         <v>195</v>
@@ -38569,7 +38574,7 @@
         <v>196</v>
       </c>
       <c r="E130" t="s" s="7">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F130" t="s" s="9">
         <v>150</v>
@@ -38578,13 +38583,13 @@
         <v>151</v>
       </c>
       <c r="H130" t="s" s="13">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="I130" t="s" s="15">
         <v>339</v>
       </c>
       <c r="J130" t="s" s="15">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" t="s" s="15">
@@ -38595,16 +38600,16 @@
         <v>156</v>
       </c>
       <c r="O130" t="s" s="103">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="P130" t="s" s="21">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="Q130" t="s" s="21">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="R130" t="s" s="15">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="S130" t="n" s="25">
         <v>1.0</v>
@@ -38620,7 +38625,7 @@
       </c>
       <c r="W130" s="31"/>
       <c r="X130" t="s" s="15">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Y130" s="33"/>
       <c r="Z130" t="n" s="107">
@@ -38738,7 +38743,7 @@
         <v>331</v>
       </c>
       <c r="CF130" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG130" t="n" s="57">
         <v>0.7</v>
@@ -38821,11 +38826,11 @@
         <v>151</v>
       </c>
       <c r="DO130" t="s" s="15">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="DP130" s="101"/>
       <c r="DQ130" t="s" s="31">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="DR130" t="s" s="65">
         <v>236</v>
@@ -38838,13 +38843,13 @@
       </c>
       <c r="DU130" s="31"/>
       <c r="DV130" t="s" s="31">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="DW130" t="s" s="31">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="DX130" t="s" s="25">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="DY130" s="31"/>
       <c r="DZ130" s="25"/>
@@ -38855,14 +38860,14 @@
       <c r="EC130" s="31"/>
       <c r="ED130" s="25"/>
       <c r="EE130" t="s" s="15">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="EF130" s="31"/>
       <c r="EG130" s="15"/>
       <c r="EH130" s="15"/>
       <c r="EI130" s="15"/>
       <c r="EJ130" t="s" s="15">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="EK130" s="15"/>
       <c r="EL130" s="15"/>
@@ -38873,10 +38878,10 @@
     </row>
     <row r="131" hidden="false">
       <c r="A131" t="s" s="25">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C131" t="s" s="3">
         <v>256</v>
@@ -39077,7 +39082,7 @@
       <c r="EC131" s="31"/>
       <c r="ED131" s="25"/>
       <c r="EE131" t="s" s="15">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="EF131" s="31"/>
       <c r="EG131" s="15"/>
@@ -39091,17 +39096,17 @@
     </row>
     <row r="132" hidden="false">
       <c r="A132" t="s" s="25">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C132" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" t="s" s="7">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F132" s="9"/>
       <c r="G132" t="s" s="11">
@@ -39317,17 +39322,17 @@
     </row>
     <row r="133" hidden="false">
       <c r="A133" t="s" s="25">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C133" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" t="s" s="7">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="F133" s="9"/>
       <c r="G133" t="s" s="11">
@@ -39527,17 +39532,17 @@
     </row>
     <row r="134" hidden="false">
       <c r="A134" t="s" s="25">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C134" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" t="s" s="7">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F134" s="9"/>
       <c r="G134" t="s" s="11">
@@ -39743,10 +39748,10 @@
     </row>
     <row r="135" hidden="false">
       <c r="A135" t="s" s="3">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C135" t="s" s="3">
         <v>147</v>
@@ -39764,10 +39769,10 @@
         <v>151</v>
       </c>
       <c r="H135" t="s" s="13">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I135" t="s" s="15">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J135" t="s" s="15">
         <v>280</v>
@@ -39784,7 +39789,7 @@
       <c r="P135" s="21"/>
       <c r="Q135" s="23"/>
       <c r="R135" t="s" s="15">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="S135" t="n" s="25">
         <v>1.0</v>
@@ -39800,7 +39805,7 @@
       </c>
       <c r="W135" s="31"/>
       <c r="X135" t="s" s="15">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="Y135" s="33"/>
       <c r="Z135" t="n" s="107">
@@ -39850,7 +39855,7 @@
         <v>1236000.0</v>
       </c>
       <c r="AP135" t="s" s="25">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="AQ135" t="n" s="39">
         <v>44499.0</v>
@@ -39859,35 +39864,35 @@
         <v>3000060.0</v>
       </c>
       <c r="AS135" t="s" s="3">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AT135" s="25"/>
       <c r="AU135" t="n" s="25">
         <v>976800.0</v>
       </c>
       <c r="AV135" t="s" s="3">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="AW135" s="25"/>
       <c r="AX135" t="n" s="25">
         <v>732600.0</v>
       </c>
       <c r="AY135" t="s" s="3">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="AZ135" s="25"/>
       <c r="BA135" t="n" s="25">
         <v>1710600.0</v>
       </c>
       <c r="BB135" t="s" s="3">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="BC135" s="25"/>
       <c r="BD135" t="n" s="25">
         <v>2686800.0</v>
       </c>
       <c r="BE135" t="s" s="3">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BF135" s="25"/>
       <c r="BG135" s="25"/>
@@ -40043,7 +40048,7 @@
         <v>151</v>
       </c>
       <c r="DO135" t="s" s="15">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="DP135" s="101"/>
       <c r="DQ135" s="31"/>
@@ -40069,39 +40074,39 @@
       <c r="EC135" s="31"/>
       <c r="ED135" s="25"/>
       <c r="EE135" t="s" s="15">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="EF135" s="31"/>
       <c r="EG135" s="15"/>
       <c r="EH135" s="15"/>
       <c r="EI135" s="15"/>
       <c r="EJ135" t="s" s="15">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="EK135" t="s" s="15">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="EL135" t="s" s="15">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM135" t="s" s="15">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="EN135" s="25"/>
     </row>
     <row r="136" hidden="false">
       <c r="A136" t="s" s="25">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C136" t="s" s="3">
         <v>256</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" t="s" s="7">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F136" s="9"/>
       <c r="G136" t="s" s="11">
@@ -40295,10 +40300,10 @@
     </row>
     <row r="137" hidden="false">
       <c r="A137" t="s" s="25">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C137" t="s" s="3">
         <v>241</v>
@@ -40358,7 +40363,7 @@
         <v>36000.0</v>
       </c>
       <c r="AH137" t="s" s="3">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="AI137" t="n" s="39">
         <v>44326.0</v>
@@ -40535,10 +40540,10 @@
     </row>
     <row r="138" hidden="false">
       <c r="A138" t="s" s="3">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C138" t="s" s="3">
         <v>256</v>
@@ -40556,7 +40561,7 @@
         <v>151</v>
       </c>
       <c r="H138" t="s" s="13">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="I138" t="s" s="15">
         <v>153</v>
@@ -40566,7 +40571,7 @@
       </c>
       <c r="K138" s="3"/>
       <c r="L138" t="s" s="15">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M138" s="15"/>
       <c r="N138" t="s" s="17">
@@ -40576,11 +40581,11 @@
         <v>328</v>
       </c>
       <c r="P138" t="s" s="21">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="Q138" s="23"/>
       <c r="R138" t="s" s="15">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="S138" t="n" s="25">
         <v>0.0</v>
@@ -40594,7 +40599,7 @@
       <c r="V138" s="11"/>
       <c r="W138" s="31"/>
       <c r="X138" t="s" s="15">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="Y138" s="33"/>
       <c r="Z138" t="n" s="107">
@@ -40740,7 +40745,7 @@
       </c>
       <c r="CO138" s="71"/>
       <c r="CP138" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ138" t="s" s="73">
         <v>172</v>
@@ -40793,15 +40798,15 @@
         <v>151</v>
       </c>
       <c r="DO138" t="s" s="15">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="DP138" s="101"/>
       <c r="DQ138" t="s" s="31">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="DR138" s="65"/>
       <c r="DS138" t="s" s="31">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="DT138" s="31"/>
       <c r="DU138" s="31"/>
@@ -40811,7 +40816,7 @@
       </c>
       <c r="DX138" s="25"/>
       <c r="DY138" t="s" s="31">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="DZ138" s="25"/>
       <c r="EA138" s="25"/>
@@ -40821,14 +40826,14 @@
       <c r="EC138" s="31"/>
       <c r="ED138" s="25"/>
       <c r="EE138" t="s" s="15">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="EF138" s="31"/>
       <c r="EG138" s="15"/>
       <c r="EH138" s="15"/>
       <c r="EI138" s="15"/>
       <c r="EJ138" t="s" s="15">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="EK138" s="15"/>
       <c r="EL138" s="15"/>
@@ -40839,10 +40844,10 @@
     </row>
     <row r="139" hidden="false">
       <c r="A139" t="s" s="25">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C139" t="s" s="3">
         <v>241</v>
@@ -40857,10 +40862,10 @@
       </c>
       <c r="H139" s="13"/>
       <c r="I139" t="s" s="15">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J139" t="s" s="15">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="15"/>
@@ -41069,7 +41074,7 @@
       <c r="EC139" s="31"/>
       <c r="ED139" s="25"/>
       <c r="EE139" t="s" s="15">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="EF139" s="31"/>
       <c r="EG139" s="15"/>
@@ -41083,17 +41088,17 @@
     </row>
     <row r="140" hidden="false">
       <c r="A140" t="s" s="25">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C140" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" t="s" s="7">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F140" s="9"/>
       <c r="G140" t="s" s="11">
@@ -41101,10 +41106,10 @@
       </c>
       <c r="H140" s="13"/>
       <c r="I140" t="s" s="15">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J140" t="s" s="15">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="15"/>
@@ -41307,10 +41312,10 @@
     </row>
     <row r="141" hidden="false">
       <c r="A141" t="s" s="3">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C141" t="s" s="3">
         <v>256</v>
@@ -41329,14 +41334,14 @@
       </c>
       <c r="H141" s="13"/>
       <c r="I141" t="s" s="15">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J141" t="s" s="15">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" t="s" s="15">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M141" s="15"/>
       <c r="N141" s="17"/>
@@ -41344,7 +41349,7 @@
       <c r="P141" s="21"/>
       <c r="Q141" s="23"/>
       <c r="R141" t="s" s="15">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="S141" t="n" s="25">
         <v>1.0</v>
@@ -41360,7 +41365,7 @@
       </c>
       <c r="W141" s="31"/>
       <c r="X141" t="s" s="15">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="Y141" s="33"/>
       <c r="Z141" t="n" s="107">
@@ -41408,7 +41413,7 @@
         <v>117000.0</v>
       </c>
       <c r="AP141" t="s" s="25">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AQ141" t="n" s="39">
         <v>44438.0</v>
@@ -41417,7 +41422,7 @@
         <v>491400.0</v>
       </c>
       <c r="AS141" t="s" s="3">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="AT141" t="n" s="41">
         <v>44376.0</v>
@@ -41426,7 +41431,7 @@
         <v>491400.0</v>
       </c>
       <c r="AV141" t="s" s="3">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AW141" t="n" s="39">
         <v>44468.0</v>
@@ -41435,7 +41440,7 @@
         <v>1787760.0</v>
       </c>
       <c r="AY141" t="s" s="25">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="AZ141" t="n" s="41">
         <v>44468.0</v>
@@ -41444,7 +41449,7 @@
         <v>2028000.0</v>
       </c>
       <c r="BB141" t="s" s="3">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="BC141" t="n" s="41">
         <v>44468.0</v>
@@ -41453,7 +41458,7 @@
         <v>1606600.0</v>
       </c>
       <c r="BE141" t="s" s="3">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="BF141" t="n" s="39">
         <v>44520.0</v>
@@ -41462,7 +41467,7 @@
         <v>1634250.0</v>
       </c>
       <c r="BH141" t="s" s="3">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="BI141" t="n" s="41">
         <v>44524.0</v>
@@ -41526,7 +41531,7 @@
         <v>206</v>
       </c>
       <c r="CF141" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG141" t="n" s="57">
         <v>0.9</v>
@@ -41603,7 +41608,7 @@
       <c r="DM141" s="91"/>
       <c r="DN141" s="73"/>
       <c r="DO141" t="s" s="15">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="DP141" s="101"/>
       <c r="DQ141" s="31"/>
@@ -41625,14 +41630,14 @@
       <c r="EC141" s="31"/>
       <c r="ED141" s="25"/>
       <c r="EE141" t="s" s="15">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="EF141" s="31"/>
       <c r="EG141" s="15"/>
       <c r="EH141" s="15"/>
       <c r="EI141" s="15"/>
       <c r="EJ141" t="s" s="15">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="EK141" s="15"/>
       <c r="EL141" s="15"/>
@@ -41644,7 +41649,7 @@
         <v>181</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C142" t="s" s="3">
         <v>188</v>
@@ -41862,7 +41867,7 @@
         <v>181</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C143" t="s" s="3">
         <v>188</v>
@@ -42077,17 +42082,17 @@
     </row>
     <row r="144" hidden="false">
       <c r="A144" t="s" s="25">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C144" t="s" s="3">
         <v>147</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F144" s="9"/>
       <c r="G144" t="s" s="11">
@@ -42304,7 +42309,7 @@
         <v>181</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C145" t="s" s="3">
         <v>188</v>
@@ -42519,17 +42524,17 @@
     </row>
     <row r="146" hidden="false">
       <c r="A146" t="s" s="25">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C146" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" t="s" s="7">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F146" s="9"/>
       <c r="G146" t="s" s="11">
@@ -42725,10 +42730,10 @@
     </row>
     <row r="147" hidden="false">
       <c r="A147" t="s" s="3">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C147" t="s" s="3">
         <v>195</v>
@@ -42737,7 +42742,7 @@
         <v>148</v>
       </c>
       <c r="E147" t="s" s="7">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F147" t="s" s="9">
         <v>204</v>
@@ -42746,13 +42751,13 @@
         <v>151</v>
       </c>
       <c r="H147" t="s" s="13">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I147" t="s" s="15">
         <v>225</v>
       </c>
       <c r="J147" t="s" s="15">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K147" t="b" s="3">
         <v>1</v>
@@ -42765,7 +42770,7 @@
       <c r="O147" s="103"/>
       <c r="P147" s="21"/>
       <c r="Q147" t="s" s="23">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="R147" s="15"/>
       <c r="S147" t="n" s="25">
@@ -42781,10 +42786,10 @@
         <v>150</v>
       </c>
       <c r="W147" t="s" s="31">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="X147" t="s" s="15">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="Y147" s="33"/>
       <c r="Z147" t="n" s="107">
@@ -42834,7 +42839,7 @@
         <v>117600.0</v>
       </c>
       <c r="AP147" t="s" s="25">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AQ147" t="n" s="39">
         <v>44438.0</v>
@@ -42843,7 +42848,7 @@
         <v>100620.0</v>
       </c>
       <c r="AS147" t="s" s="25">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="AT147" t="n" s="41">
         <v>44468.0</v>
@@ -42999,7 +43004,7 @@
       <c r="DM147" s="91"/>
       <c r="DN147" s="73"/>
       <c r="DO147" t="s" s="15">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="DP147" s="101"/>
       <c r="DQ147" s="31"/>
@@ -43023,14 +43028,14 @@
       <c r="EC147" s="31"/>
       <c r="ED147" s="25"/>
       <c r="EE147" t="s" s="15">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="EF147" s="31"/>
       <c r="EG147" s="15"/>
       <c r="EH147" s="15"/>
       <c r="EI147" s="15"/>
       <c r="EJ147" t="s" s="15">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EK147" s="15"/>
       <c r="EL147" s="15"/>
@@ -43039,10 +43044,10 @@
     </row>
     <row r="148" hidden="false">
       <c r="A148" t="s" s="25">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C148" t="s" s="3">
         <v>241</v>
@@ -43257,10 +43262,10 @@
     </row>
     <row r="149" hidden="false">
       <c r="A149" t="s" s="3">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C149" t="s" s="3">
         <v>241</v>
@@ -43269,7 +43274,7 @@
         <v>176</v>
       </c>
       <c r="E149" t="s" s="7">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F149" t="s" s="9">
         <v>231</v>
@@ -43293,13 +43298,13 @@
         <v>156</v>
       </c>
       <c r="O149" t="s" s="103">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="P149" t="s" s="21">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q149" t="s" s="23">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="R149" s="15"/>
       <c r="S149" t="n" s="25">
@@ -43314,7 +43319,7 @@
       </c>
       <c r="W149" s="31"/>
       <c r="X149" t="s" s="15">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="Y149" s="33"/>
       <c r="Z149" t="n" s="107">
@@ -43460,7 +43465,7 @@
         <v>209</v>
       </c>
       <c r="CV149" t="s" s="83">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CW149" t="n" s="119">
         <v>230000.0</v>
@@ -43489,7 +43494,7 @@
       <c r="DM149" s="91"/>
       <c r="DN149" s="73"/>
       <c r="DO149" t="s" s="15">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="DP149" s="101"/>
       <c r="DQ149" s="31"/>
@@ -43509,7 +43514,7 @@
       <c r="EC149" s="31"/>
       <c r="ED149" s="25"/>
       <c r="EE149" t="s" s="15">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="EF149" s="31"/>
       <c r="EG149" s="15"/>
@@ -43523,10 +43528,10 @@
     </row>
     <row r="150" hidden="false">
       <c r="A150" t="s" s="3">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B150" t="s" s="5">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C150" t="s" s="3">
         <v>241</v>
@@ -43535,7 +43540,7 @@
         <v>176</v>
       </c>
       <c r="E150" t="s" s="7">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F150" t="s" s="9">
         <v>231</v>
@@ -43544,7 +43549,7 @@
         <v>151</v>
       </c>
       <c r="H150" t="s" s="13">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="I150" t="s" s="15">
         <v>220</v>
@@ -43564,10 +43569,10 @@
         <v>15000.0</v>
       </c>
       <c r="P150" t="s" s="21">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="Q150" t="s" s="23">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="R150" s="15"/>
       <c r="S150" t="n" s="25">
@@ -43582,7 +43587,7 @@
       </c>
       <c r="W150" s="31"/>
       <c r="X150" t="s" s="15">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="Y150" s="33"/>
       <c r="Z150" t="n" s="107">
@@ -43680,7 +43685,7 @@
       </c>
       <c r="BW150" s="11"/>
       <c r="BX150" t="s" s="11">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="BY150" t="n" s="25">
         <v>7.0</v>
@@ -43718,7 +43723,7 @@
       </c>
       <c r="CO150" s="71"/>
       <c r="CP150" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ150" t="s" s="73">
         <v>172</v>
@@ -43763,7 +43768,7 @@
       <c r="DM150" s="91"/>
       <c r="DN150" s="73"/>
       <c r="DO150" t="s" s="15">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="DP150" s="101"/>
       <c r="DQ150" s="31"/>
@@ -43783,7 +43788,7 @@
       <c r="EC150" s="31"/>
       <c r="ED150" s="25"/>
       <c r="EE150" t="s" s="15">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="EF150" s="31"/>
       <c r="EG150" s="15"/>
@@ -43797,10 +43802,10 @@
     </row>
     <row r="151" hidden="false">
       <c r="A151" t="s" s="3">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B151" t="s" s="5">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C151" t="s" s="3">
         <v>256</v>
@@ -43809,7 +43814,7 @@
         <v>176</v>
       </c>
       <c r="E151" t="s" s="7">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F151" t="s" s="9">
         <v>204</v>
@@ -43818,7 +43823,7 @@
         <v>151</v>
       </c>
       <c r="H151" t="s" s="13">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="I151" t="s" s="15">
         <v>243</v>
@@ -43834,7 +43839,7 @@
       <c r="N151" s="17"/>
       <c r="O151" s="103"/>
       <c r="P151" t="s" s="21">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="Q151" s="23"/>
       <c r="R151" s="15"/>
@@ -43850,7 +43855,7 @@
       <c r="V151" s="11"/>
       <c r="W151" s="31"/>
       <c r="X151" t="s" s="15">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="Y151" s="33"/>
       <c r="Z151" t="n" s="107">
@@ -43965,7 +43970,7 @@
         <v>150</v>
       </c>
       <c r="CC151" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD151" t="n" s="53">
         <v>44235.0</v>
@@ -44053,7 +44058,7 @@
       <c r="EC151" s="31"/>
       <c r="ED151" s="25"/>
       <c r="EE151" t="s" s="15">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="EF151" s="31"/>
       <c r="EG151" s="15"/>
@@ -44070,7 +44075,7 @@
         <v>181</v>
       </c>
       <c r="B152" t="s" s="5">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C152" t="s" s="3">
         <v>188</v>
@@ -44283,10 +44288,10 @@
     </row>
     <row r="153" hidden="false">
       <c r="A153" t="s" s="3">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B153" t="s" s="5">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C153" t="s" s="3">
         <v>195</v>
@@ -44295,7 +44300,7 @@
         <v>196</v>
       </c>
       <c r="E153" t="s" s="7">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F153" t="s" s="9">
         <v>231</v>
@@ -44305,7 +44310,7 @@
       </c>
       <c r="H153" s="13"/>
       <c r="I153" t="s" s="15">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="J153" t="s" s="15">
         <v>390</v>
@@ -44319,7 +44324,7 @@
       <c r="O153" s="103"/>
       <c r="P153" s="21"/>
       <c r="Q153" t="s" s="15">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="R153" s="15"/>
       <c r="S153" t="n" s="25">
@@ -44481,7 +44486,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ153" t="s" s="73">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CR153" t="s" s="75">
         <v>173</v>
@@ -44498,7 +44503,7 @@
       <c r="CV153" s="83"/>
       <c r="CW153" s="85"/>
       <c r="CX153" t="s" s="31">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="CY153" t="n" s="25">
         <v>1.1633535E7</v>
@@ -44529,20 +44534,20 @@
         <v>151</v>
       </c>
       <c r="DO153" t="s" s="15">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="DP153" s="101"/>
       <c r="DQ153" s="31"/>
       <c r="DR153" s="65"/>
       <c r="DS153" t="s" s="31">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="DT153" t="s" s="31">
         <v>212</v>
       </c>
       <c r="DU153" s="31"/>
       <c r="DV153" t="s" s="31">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="DW153" s="31"/>
       <c r="DX153" s="25"/>
@@ -44555,7 +44560,7 @@
       <c r="EC153" s="31"/>
       <c r="ED153" s="25"/>
       <c r="EE153" t="s" s="15">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="EF153" s="31"/>
       <c r="EG153" s="15"/>
@@ -44572,7 +44577,7 @@
         <v>181</v>
       </c>
       <c r="B154" t="s" s="5">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C154" t="s" s="3">
         <v>147</v>
@@ -44801,10 +44806,10 @@
     </row>
     <row r="155" hidden="false">
       <c r="A155" t="s" s="3">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B155" t="s" s="5">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C155" t="s" s="3">
         <v>195</v>
@@ -44813,7 +44818,7 @@
         <v>196</v>
       </c>
       <c r="E155" t="s" s="7">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F155" t="s" s="9">
         <v>150</v>
@@ -44822,13 +44827,13 @@
         <v>151</v>
       </c>
       <c r="H155" t="s" s="13">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="I155" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J155" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" t="s" s="15">
@@ -44839,13 +44844,13 @@
         <v>156</v>
       </c>
       <c r="O155" t="s" s="103">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="P155" t="s" s="21">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="Q155" t="s" s="23">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="R155" s="15"/>
       <c r="S155" t="n" s="25">
@@ -44859,10 +44864,10 @@
       </c>
       <c r="V155" s="11"/>
       <c r="W155" t="s" s="31">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="X155" t="s" s="15">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="Y155" s="33"/>
       <c r="Z155" t="n" s="107">
@@ -44912,7 +44917,7 @@
         <v>151200.0</v>
       </c>
       <c r="AP155" t="s" s="3">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AQ155" t="n" s="41">
         <v>44533.0</v>
@@ -44921,7 +44926,7 @@
         <v>140160.0</v>
       </c>
       <c r="AS155" t="s" s="3">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="AT155" s="25"/>
       <c r="AU155" s="25"/>
@@ -45079,7 +45084,7 @@
       <c r="DM155" s="91"/>
       <c r="DN155" s="73"/>
       <c r="DO155" t="s" s="15">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="DP155" s="101"/>
       <c r="DQ155" t="s" s="31">
@@ -45099,7 +45104,7 @@
       <c r="DW155" s="31"/>
       <c r="DX155" s="25"/>
       <c r="DY155" t="s" s="31">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="DZ155" s="25"/>
       <c r="EA155" s="25"/>
@@ -45107,18 +45112,18 @@
         <v>181</v>
       </c>
       <c r="EC155" t="s" s="31">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="ED155" s="25"/>
       <c r="EE155" t="s" s="15">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="EF155" s="31"/>
       <c r="EG155" s="15"/>
       <c r="EH155" s="15"/>
       <c r="EI155" s="15"/>
       <c r="EJ155" t="s" s="15">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="EK155" s="15"/>
       <c r="EL155" s="15"/>
@@ -45129,17 +45134,17 @@
     </row>
     <row r="156" hidden="false">
       <c r="A156" t="s" s="25">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B156" t="s" s="5">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C156" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" t="s" s="7">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F156" s="9"/>
       <c r="G156" t="s" s="11">
@@ -45147,7 +45152,7 @@
       </c>
       <c r="H156" s="13"/>
       <c r="I156" t="s" s="15">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="J156" t="s" s="15">
         <v>191</v>
@@ -45349,17 +45354,17 @@
     </row>
     <row r="157" hidden="false">
       <c r="A157" t="s" s="25">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B157" t="s" s="5">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C157" t="s" s="3">
         <v>195</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" t="s" s="7">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F157" s="9"/>
       <c r="G157" t="s" s="11">
@@ -45579,10 +45584,10 @@
     </row>
     <row r="158" hidden="false">
       <c r="A158" t="s" s="3">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B158" t="s" s="5">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C158" t="s" s="3">
         <v>195</v>
@@ -45591,7 +45596,7 @@
         <v>148</v>
       </c>
       <c r="E158" t="s" s="7">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F158" t="s" s="9">
         <v>150</v>
@@ -45614,13 +45619,13 @@
       <c r="N158" s="17"/>
       <c r="O158" s="103"/>
       <c r="P158" t="s" s="21">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="Q158" t="s" s="23">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="R158" t="s" s="15">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="S158" t="n" s="25">
         <v>0.0</v>
@@ -45634,7 +45639,7 @@
       <c r="V158" s="11"/>
       <c r="W158" s="31"/>
       <c r="X158" t="s" s="15">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="Y158" s="33"/>
       <c r="Z158" t="n" s="107">
@@ -45802,7 +45807,7 @@
       <c r="CV158" s="83"/>
       <c r="CW158" s="85"/>
       <c r="CX158" t="s" s="31">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="CY158" t="n" s="25">
         <v>6.3738641E7</v>
@@ -45835,7 +45840,7 @@
         <v>151</v>
       </c>
       <c r="DO158" t="s" s="15">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="DP158" s="101"/>
       <c r="DQ158" s="31"/>
@@ -45851,7 +45856,7 @@
       <c r="DW158" s="31"/>
       <c r="DX158" s="25"/>
       <c r="DY158" t="s" s="31">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="DZ158" s="25"/>
       <c r="EA158" s="25"/>
@@ -45861,7 +45866,7 @@
       <c r="EC158" s="31"/>
       <c r="ED158" s="25"/>
       <c r="EE158" t="s" s="15">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="EF158" s="31"/>
       <c r="EG158" s="15"/>
@@ -45882,7 +45887,7 @@
         <v>181</v>
       </c>
       <c r="B159" t="s" s="5">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C159" t="s" s="3">
         <v>256</v>
@@ -46102,7 +46107,7 @@
         <v>181</v>
       </c>
       <c r="B160" t="s" s="5">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C160" t="s" s="3">
         <v>188</v>
@@ -46320,7 +46325,7 @@
         <v>181</v>
       </c>
       <c r="B161" t="s" s="5">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C161" t="s" s="3">
         <v>188</v>
@@ -46535,10 +46540,10 @@
     </row>
     <row r="162" hidden="false">
       <c r="A162" t="s" s="3">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B162" t="s" s="5">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C162" t="s" s="3">
         <v>256</v>
@@ -46547,7 +46552,7 @@
         <v>196</v>
       </c>
       <c r="E162" t="s" s="7">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F162" t="s" s="9">
         <v>150</v>
@@ -46556,10 +46561,10 @@
         <v>151</v>
       </c>
       <c r="H162" t="s" s="13">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I162" t="s" s="15">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J162" t="s" s="15">
         <v>390</v>
@@ -46757,7 +46762,7 @@
       <c r="DW162" s="31"/>
       <c r="DX162" s="25"/>
       <c r="DY162" t="s" s="31">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="DZ162" s="25"/>
       <c r="EA162" s="25"/>
@@ -46767,14 +46772,14 @@
       <c r="EC162" s="31"/>
       <c r="ED162" s="25"/>
       <c r="EE162" t="s" s="15">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="EF162" s="31"/>
       <c r="EG162" s="15"/>
       <c r="EH162" s="15"/>
       <c r="EI162" s="15"/>
       <c r="EJ162" t="s" s="15">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="EK162" s="15"/>
       <c r="EL162" s="15"/>
@@ -46783,10 +46788,10 @@
     </row>
     <row r="163" hidden="false">
       <c r="A163" t="s" s="3">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B163" t="s" s="5">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C163" t="s" s="3">
         <v>147</v>
@@ -46795,7 +46800,7 @@
         <v>148</v>
       </c>
       <c r="E163" t="s" s="7">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F163" t="s" s="9">
         <v>150</v>
@@ -46804,13 +46809,13 @@
         <v>151</v>
       </c>
       <c r="H163" t="s" s="13">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="I163" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J163" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" t="s" s="15">
@@ -46821,14 +46826,14 @@
         <v>156</v>
       </c>
       <c r="O163" t="s" s="103">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="P163" t="s" s="21">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="Q163" s="23"/>
       <c r="R163" t="s" s="15">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="S163" t="n" s="25">
         <v>1.0</v>
@@ -46844,7 +46849,7 @@
       </c>
       <c r="W163" s="31"/>
       <c r="X163" t="s" s="15">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="Y163" s="33"/>
       <c r="Z163" t="n" s="107">
@@ -46999,7 +47004,7 @@
         <v>0.0</v>
       </c>
       <c r="CQ163" t="s" s="73">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CR163" t="s" s="75">
         <v>173</v>
@@ -47016,7 +47021,7 @@
       <c r="CV163" s="83"/>
       <c r="CW163" s="85"/>
       <c r="CX163" t="s" s="31">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="CY163" s="25"/>
       <c r="CZ163" t="s" s="87">
@@ -47049,7 +47054,7 @@
         <v>151</v>
       </c>
       <c r="DO163" t="s" s="15">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="DP163" s="101"/>
       <c r="DQ163" t="s" s="31">
@@ -47075,14 +47080,14 @@
       <c r="EC163" s="31"/>
       <c r="ED163" s="25"/>
       <c r="EE163" t="s" s="15">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="EF163" s="31"/>
       <c r="EG163" s="15"/>
       <c r="EH163" s="15"/>
       <c r="EI163" s="15"/>
       <c r="EJ163" t="s" s="15">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="EK163" s="15"/>
       <c r="EL163" s="15"/>
@@ -47093,10 +47098,10 @@
     </row>
     <row r="164" hidden="false">
       <c r="A164" t="s" s="25">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B164" t="s" s="5">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C164" t="s" s="3">
         <v>195</v>
@@ -47105,7 +47110,7 @@
         <v>196</v>
       </c>
       <c r="E164" t="s" s="7">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F164" t="s" s="9">
         <v>168</v>
@@ -47118,7 +47123,7 @@
         <v>258</v>
       </c>
       <c r="J164" t="s" s="15">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="K164" s="3"/>
       <c r="L164" s="15"/>
@@ -47341,10 +47346,10 @@
     </row>
     <row r="165" hidden="false">
       <c r="A165" t="s" s="3">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B165" t="s" s="5">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C165" t="s" s="3">
         <v>195</v>
@@ -47353,7 +47358,7 @@
         <v>148</v>
       </c>
       <c r="E165" t="s" s="7">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F165" t="s" s="9">
         <v>150</v>
@@ -47362,27 +47367,27 @@
         <v>151</v>
       </c>
       <c r="H165" t="s" s="13">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="I165" t="s" s="15">
         <v>153</v>
       </c>
       <c r="J165" t="s" s="15">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" t="s" s="15">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="M165" s="15"/>
       <c r="N165" s="17"/>
       <c r="O165" s="103"/>
       <c r="P165" s="21"/>
       <c r="Q165" t="s" s="23">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="R165" t="s" s="15">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="S165" t="n" s="25">
         <v>0.0</v>
@@ -47395,10 +47400,10 @@
       </c>
       <c r="V165" s="11"/>
       <c r="W165" t="s" s="31">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="X165" t="s" s="15">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="Y165" s="33"/>
       <c r="Z165" t="n" s="107">
@@ -47514,7 +47519,7 @@
         <v>206</v>
       </c>
       <c r="CF165" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG165" t="n" s="57">
         <v>0.4</v>
@@ -47564,7 +47569,7 @@
       <c r="CV165" s="83"/>
       <c r="CW165" s="85"/>
       <c r="CX165" t="s" s="31">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="CY165" t="n" s="25">
         <v>3.1684582E7</v>
@@ -47601,11 +47606,11 @@
         <v>151</v>
       </c>
       <c r="DO165" t="s" s="15">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="DP165" s="101"/>
       <c r="DQ165" t="s" s="31">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="DR165" s="65"/>
       <c r="DS165" t="s" s="31">
@@ -47619,7 +47624,7 @@
       <c r="DW165" s="31"/>
       <c r="DX165" s="25"/>
       <c r="DY165" t="s" s="31">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="DZ165" s="25"/>
       <c r="EA165" s="25"/>
@@ -47627,27 +47632,27 @@
         <v>181</v>
       </c>
       <c r="EC165" t="s" s="31">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="ED165" s="25"/>
       <c r="EE165" t="s" s="15">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="EF165" s="31"/>
       <c r="EG165" s="15"/>
       <c r="EH165" s="15"/>
       <c r="EI165" t="s" s="15">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="EJ165" t="s" s="15">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="EK165" t="s" s="15">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="EL165" s="15"/>
       <c r="EM165" t="s" s="15">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="EN165" t="n" s="25">
         <v>1.0</v>
@@ -47658,7 +47663,7 @@
         <v>181</v>
       </c>
       <c r="B166" t="s" s="5">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C166" t="s" s="3">
         <v>188</v>
@@ -47873,10 +47878,10 @@
     </row>
     <row r="167" hidden="false">
       <c r="A167" t="s" s="3">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B167" t="s" s="5">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C167" t="s" s="3">
         <v>276</v>
@@ -47898,7 +47903,7 @@
         <v>389</v>
       </c>
       <c r="J167" t="s" s="15">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="K167" t="b" s="3">
         <v>1</v>
@@ -47920,7 +47925,7 @@
       <c r="V167" s="11"/>
       <c r="W167" s="31"/>
       <c r="X167" t="s" s="15">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="Y167" s="33"/>
       <c r="Z167" t="n" s="107">
@@ -47970,7 +47975,7 @@
         <v>727380.0</v>
       </c>
       <c r="AP167" t="s" s="3">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AQ167" s="25"/>
       <c r="AR167" s="25"/>
@@ -48064,7 +48069,7 @@
       <c r="CN167" s="69"/>
       <c r="CO167" s="71"/>
       <c r="CP167" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ167" t="s" s="73">
         <v>206</v>
@@ -48121,7 +48126,7 @@
       <c r="DM167" s="91"/>
       <c r="DN167" s="73"/>
       <c r="DO167" t="s" s="15">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="DP167" s="101"/>
       <c r="DQ167" s="31"/>
@@ -48143,7 +48148,7 @@
       <c r="EC167" s="31"/>
       <c r="ED167" s="25"/>
       <c r="EE167" t="s" s="15">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="EF167" s="31"/>
       <c r="EG167" s="15"/>
@@ -48157,10 +48162,10 @@
     </row>
     <row r="168" hidden="false">
       <c r="A168" t="s" s="3">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B168" t="s" s="5">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C168" t="s" s="3">
         <v>147</v>
@@ -48169,7 +48174,7 @@
         <v>196</v>
       </c>
       <c r="E168" t="s" s="7">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F168" t="s" s="9">
         <v>150</v>
@@ -48178,33 +48183,33 @@
         <v>151</v>
       </c>
       <c r="H168" t="s" s="13">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="I168" t="s" s="15">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J168" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K168" s="3"/>
       <c r="L168" t="s" s="15">
         <v>414</v>
       </c>
       <c r="M168" t="s" s="31">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="N168" t="s" s="17">
         <v>156</v>
       </c>
       <c r="O168" t="s" s="103">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="P168" t="s" s="21">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="Q168" s="23"/>
       <c r="R168" t="s" s="15">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="S168" t="n" s="25">
         <v>1.0</v>
@@ -48220,7 +48225,7 @@
       </c>
       <c r="W168" s="31"/>
       <c r="X168" t="s" s="15">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="Y168" s="33"/>
       <c r="Z168" t="n" s="107">
@@ -48333,7 +48338,7 @@
         <v>150</v>
       </c>
       <c r="CC168" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD168" t="n" s="53">
         <v>44399.0</v>
@@ -48415,7 +48420,7 @@
         <v>151</v>
       </c>
       <c r="DO168" t="s" s="15">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="DP168" s="101"/>
       <c r="DQ168" t="s" s="31">
@@ -48425,7 +48430,7 @@
         <v>315</v>
       </c>
       <c r="DS168" t="s" s="31">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="DT168" t="s" s="31">
         <v>213</v>
@@ -48439,7 +48444,7 @@
       </c>
       <c r="DX168" s="25"/>
       <c r="DY168" t="s" s="31">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="DZ168" s="25"/>
       <c r="EA168" s="25"/>
@@ -48449,14 +48454,14 @@
       <c r="EC168" s="31"/>
       <c r="ED168" s="25"/>
       <c r="EE168" t="s" s="15">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="EF168" s="31"/>
       <c r="EG168" s="15"/>
       <c r="EH168" s="15"/>
       <c r="EI168" s="15"/>
       <c r="EJ168" t="s" s="15">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="EK168" s="15"/>
       <c r="EL168" s="15"/>
@@ -48467,17 +48472,17 @@
     </row>
     <row r="169" hidden="false">
       <c r="A169" t="s" s="25">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B169" t="s" s="5">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C169" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" t="s" s="7">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F169" s="9"/>
       <c r="G169" t="s" s="11">
@@ -48698,7 +48703,7 @@
         <v>181</v>
       </c>
       <c r="B170" t="s" s="5">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C170" t="s" s="3">
         <v>188</v>
@@ -48916,7 +48921,7 @@
         <v>181</v>
       </c>
       <c r="B171" t="s" s="5">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C171" t="s" s="3">
         <v>188</v>
@@ -49133,10 +49138,10 @@
     </row>
     <row r="172" hidden="false">
       <c r="A172" t="s" s="3">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B172" t="s" s="5">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C172" t="s" s="3">
         <v>147</v>
@@ -49155,10 +49160,10 @@
       </c>
       <c r="H172" s="13"/>
       <c r="I172" t="s" s="15">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="J172" t="s" s="15">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" t="s" s="15">
@@ -49169,10 +49174,10 @@
       <c r="O172" s="103"/>
       <c r="P172" s="21"/>
       <c r="Q172" t="s" s="23">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="R172" t="s" s="15">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="S172" t="n" s="25">
         <v>0.0</v>
@@ -49186,7 +49191,7 @@
       <c r="V172" s="11"/>
       <c r="W172" s="31"/>
       <c r="X172" t="s" s="15">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="Y172" s="33"/>
       <c r="Z172" t="n" s="107">
@@ -49304,7 +49309,7 @@
         <v>206</v>
       </c>
       <c r="CF172" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG172" t="n" s="57">
         <v>0.7</v>
@@ -49375,7 +49380,7 @@
       <c r="DM172" s="91"/>
       <c r="DN172" s="73"/>
       <c r="DO172" t="s" s="15">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="DP172" s="101"/>
       <c r="DQ172" t="s" s="31">
@@ -49401,7 +49406,7 @@
       <c r="EC172" s="31"/>
       <c r="ED172" s="25"/>
       <c r="EE172" t="s" s="15">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="EF172" s="31"/>
       <c r="EG172" s="15"/>
@@ -49417,10 +49422,10 @@
     </row>
     <row r="173" hidden="false">
       <c r="A173" t="s" s="3">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B173" t="s" s="5">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C173" t="s" s="3">
         <v>188</v>
@@ -49429,7 +49434,7 @@
         <v>148</v>
       </c>
       <c r="E173" t="s" s="7">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F173" t="s" s="9">
         <v>231</v>
@@ -49438,10 +49443,10 @@
         <v>151</v>
       </c>
       <c r="H173" t="s" s="13">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="I173" t="s" s="15">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="J173" t="s" s="15">
         <v>243</v>
@@ -49455,7 +49460,7 @@
       <c r="O173" s="103"/>
       <c r="P173" s="21"/>
       <c r="Q173" t="s" s="23">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="R173" s="15"/>
       <c r="S173" t="n" s="25">
@@ -49469,10 +49474,10 @@
         <v>150</v>
       </c>
       <c r="W173" t="s" s="31">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="X173" t="s" s="15">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="Y173" s="33"/>
       <c r="Z173" t="n" s="107">
@@ -49594,7 +49599,7 @@
         <v>5.7961516E7</v>
       </c>
       <c r="CF173" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG173" t="n" s="57">
         <v>0.72</v>
@@ -49677,7 +49682,7 @@
         <v>151</v>
       </c>
       <c r="DO173" t="s" s="15">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="DP173" s="101"/>
       <c r="DQ173" s="31"/>
@@ -49699,7 +49704,7 @@
       <c r="EC173" s="31"/>
       <c r="ED173" s="25"/>
       <c r="EE173" t="s" s="15">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="EF173" s="31"/>
       <c r="EG173" s="15"/>
@@ -49713,10 +49718,10 @@
     </row>
     <row r="174" hidden="false">
       <c r="A174" t="s" s="3">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B174" t="s" s="5">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C174" t="s" s="3">
         <v>195</v>
@@ -49725,7 +49730,7 @@
         <v>148</v>
       </c>
       <c r="E174" t="s" s="7">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F174" t="s" s="9">
         <v>150</v>
@@ -49734,29 +49739,29 @@
         <v>151</v>
       </c>
       <c r="H174" t="s" s="13">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="I174" t="s" s="15">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="J174" t="s" s="15">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="K174" s="3"/>
       <c r="L174" t="s" s="15">
         <v>201</v>
       </c>
       <c r="M174" t="s" s="31">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="N174" s="17"/>
       <c r="O174" s="103"/>
       <c r="P174" s="21"/>
       <c r="Q174" t="s" s="23">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="R174" t="s" s="15">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="S174" t="n" s="25">
         <v>1.0</v>
@@ -49772,7 +49777,7 @@
       </c>
       <c r="W174" s="31"/>
       <c r="X174" t="s" s="15">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="Y174" s="33"/>
       <c r="Z174" t="n" s="107">
@@ -49890,7 +49895,7 @@
         <v>5.1581099E7</v>
       </c>
       <c r="CF174" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG174" t="n" s="57">
         <v>0.5</v>
@@ -49966,11 +49971,11 @@
       <c r="DN174" s="73"/>
       <c r="DO174" s="15"/>
       <c r="DP174" t="s" s="101">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DQ174" s="31"/>
       <c r="DR174" t="s" s="65">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="DS174" t="s" s="31">
         <v>374</v>
@@ -49981,7 +49986,7 @@
       <c r="DW174" s="31"/>
       <c r="DX174" s="25"/>
       <c r="DY174" t="s" s="31">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="DZ174" s="25"/>
       <c r="EA174" s="25"/>
@@ -49991,7 +49996,7 @@
       <c r="EC174" s="31"/>
       <c r="ED174" s="25"/>
       <c r="EE174" t="s" s="15">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="EF174" s="31"/>
       <c r="EG174" s="15"/>
@@ -50010,7 +50015,7 @@
         <v>181</v>
       </c>
       <c r="B175" t="s" s="5">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C175" t="s" s="3">
         <v>276</v>
@@ -50221,10 +50226,10 @@
     </row>
     <row r="176" hidden="false">
       <c r="A176" t="s" s="3">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B176" t="s" s="5">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C176" t="s" s="3">
         <v>276</v>
@@ -50233,7 +50238,7 @@
         <v>196</v>
       </c>
       <c r="E176" t="s" s="7">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F176" t="s" s="9">
         <v>204</v>
@@ -50268,7 +50273,7 @@
       <c r="V176" s="11"/>
       <c r="W176" s="31"/>
       <c r="X176" t="s" s="15">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="Y176" s="33"/>
       <c r="Z176" t="n" s="107">
@@ -50475,7 +50480,7 @@
       <c r="EC176" s="31"/>
       <c r="ED176" s="25"/>
       <c r="EE176" t="s" s="15">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="EF176" s="31"/>
       <c r="EG176" s="15"/>
@@ -50489,10 +50494,10 @@
     </row>
     <row r="177" hidden="false">
       <c r="A177" t="s" s="3">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B177" t="s" s="5">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C177" t="s" s="3">
         <v>195</v>
@@ -50501,7 +50506,7 @@
         <v>148</v>
       </c>
       <c r="E177" t="s" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F177" t="s" s="9">
         <v>150</v>
@@ -50510,13 +50515,13 @@
         <v>151</v>
       </c>
       <c r="H177" t="s" s="13">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="I177" t="s" s="15">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="J177" t="s" s="15">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="K177" t="b" s="3">
         <v>1</v>
@@ -50529,10 +50534,10 @@
       <c r="O177" s="103"/>
       <c r="P177" s="21"/>
       <c r="Q177" t="s" s="23">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="R177" t="s" s="15">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="S177" t="n" s="25">
         <v>0.0</v>
@@ -50546,7 +50551,7 @@
       <c r="V177" s="11"/>
       <c r="W177" s="31"/>
       <c r="X177" t="s" s="15">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="Y177" s="33"/>
       <c r="Z177" t="n" s="107">
@@ -50594,7 +50599,7 @@
         <v>50310.0</v>
       </c>
       <c r="AP177" t="s" s="25">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="AQ177" t="n" s="41">
         <v>44468.0</v>
@@ -50603,7 +50608,7 @@
         <v>30000.0</v>
       </c>
       <c r="AS177" t="s" s="25">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AT177" t="n" s="41">
         <v>44392.0</v>
@@ -50686,7 +50691,7 @@
         <v>2.52E7</v>
       </c>
       <c r="CF177" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG177" t="n" s="57">
         <v>0.13</v>
@@ -50736,7 +50741,7 @@
       <c r="CV177" s="83"/>
       <c r="CW177" s="85"/>
       <c r="CX177" t="s" s="31">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="CY177" t="n" s="25">
         <v>5.6248139E7</v>
@@ -50769,7 +50774,7 @@
       <c r="DM177" s="91"/>
       <c r="DN177" s="73"/>
       <c r="DO177" t="s" s="15">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="DP177" s="101"/>
       <c r="DQ177" s="31"/>
@@ -50795,14 +50800,14 @@
       <c r="EC177" s="31"/>
       <c r="ED177" s="25"/>
       <c r="EE177" t="s" s="15">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="EF177" s="31"/>
       <c r="EG177" s="15"/>
       <c r="EH177" s="15"/>
       <c r="EI177" s="15"/>
       <c r="EJ177" t="s" s="15">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="EK177" s="15"/>
       <c r="EL177" s="15"/>
@@ -50811,10 +50816,10 @@
     </row>
     <row r="178" hidden="false">
       <c r="A178" t="s" s="3">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B178" t="s" s="5">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C178" t="s" s="3">
         <v>256</v>
@@ -50823,7 +50828,7 @@
         <v>176</v>
       </c>
       <c r="E178" t="s" s="7">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F178" t="s" s="9">
         <v>204</v>
@@ -50832,7 +50837,7 @@
         <v>151</v>
       </c>
       <c r="H178" t="s" s="13">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="I178" t="s" s="15">
         <v>243</v>
@@ -51036,12 +51041,12 @@
       <c r="DL178" s="73"/>
       <c r="DM178" s="91"/>
       <c r="DN178" t="s" s="73">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="DO178" s="15"/>
       <c r="DP178" s="101"/>
       <c r="DQ178" t="s" s="31">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="DR178" s="65"/>
       <c r="DS178" s="31"/>
@@ -51059,14 +51064,14 @@
       <c r="EC178" s="31"/>
       <c r="ED178" s="25"/>
       <c r="EE178" t="s" s="15">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="EF178" s="31"/>
       <c r="EG178" s="15"/>
       <c r="EH178" s="15"/>
       <c r="EI178" s="15"/>
       <c r="EJ178" t="s" s="15">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="EK178" s="15"/>
       <c r="EL178" s="15"/>
@@ -51075,17 +51080,17 @@
     </row>
     <row r="179" hidden="false">
       <c r="A179" t="s" s="25">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B179" t="s" s="5">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C179" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" t="s" s="7">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" t="s" s="11">
@@ -51309,10 +51314,10 @@
     </row>
     <row r="180" hidden="false">
       <c r="A180" t="s" s="3">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B180" t="s" s="5">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C180" t="s" s="3">
         <v>147</v>
@@ -51321,7 +51326,7 @@
         <v>196</v>
       </c>
       <c r="E180" t="s" s="7">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F180" t="s" s="9">
         <v>204</v>
@@ -51331,10 +51336,10 @@
       </c>
       <c r="H180" s="13"/>
       <c r="I180" t="s" s="15">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J180" t="s" s="15">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K180" s="3"/>
       <c r="L180" t="s" s="15">
@@ -51345,10 +51350,10 @@
       <c r="O180" s="103"/>
       <c r="P180" s="21"/>
       <c r="Q180" t="s" s="23">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="R180" t="s" s="15">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S180" t="n" s="25">
         <v>1.0</v>
@@ -51406,7 +51411,7 @@
         <v>1324020.0</v>
       </c>
       <c r="AP180" t="s" s="25">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AQ180" s="25"/>
       <c r="AR180" s="25"/>
@@ -51569,7 +51574,7 @@
       <c r="DM180" s="91"/>
       <c r="DN180" s="73"/>
       <c r="DO180" t="s" s="15">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="DP180" s="101"/>
       <c r="DQ180" s="31"/>
@@ -51589,7 +51594,7 @@
       <c r="EC180" s="31"/>
       <c r="ED180" s="25"/>
       <c r="EE180" t="s" s="15">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="EF180" s="31"/>
       <c r="EG180" s="15"/>
@@ -51606,7 +51611,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s" s="5">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C181" t="s" s="3">
         <v>188</v>
@@ -51822,7 +51827,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s" s="5">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C182" t="s" s="3">
         <v>188</v>
@@ -52023,7 +52028,7 @@
       <c r="EC182" s="31"/>
       <c r="ED182" s="25"/>
       <c r="EE182" t="s" s="15">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="EF182" s="31"/>
       <c r="EG182" s="15"/>
@@ -52037,10 +52042,10 @@
     </row>
     <row r="183" hidden="false">
       <c r="A183" t="s" s="3">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B183" t="s" s="5">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C183" t="s" s="3">
         <v>256</v>
@@ -52049,7 +52054,7 @@
         <v>176</v>
       </c>
       <c r="E183" t="s" s="7">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="F183" t="s" s="9">
         <v>204</v>
@@ -52183,7 +52188,7 @@
         <v>150</v>
       </c>
       <c r="CC183" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD183" t="n" s="53">
         <v>44236.0</v>
@@ -52253,7 +52258,7 @@
       <c r="DM183" s="91"/>
       <c r="DN183" s="73"/>
       <c r="DO183" t="s" s="15">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="DP183" s="101"/>
       <c r="DQ183" s="31"/>
@@ -52273,7 +52278,7 @@
       <c r="EC183" s="31"/>
       <c r="ED183" s="25"/>
       <c r="EE183" t="s" s="15">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="EF183" s="31"/>
       <c r="EG183" s="15"/>
@@ -52287,10 +52292,10 @@
     </row>
     <row r="184" hidden="false">
       <c r="A184" t="s" s="3">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B184" t="s" s="5">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C184" t="s" s="3">
         <v>195</v>
@@ -52299,7 +52304,7 @@
         <v>148</v>
       </c>
       <c r="E184" t="s" s="7">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F184" t="s" s="9">
         <v>150</v>
@@ -52308,35 +52313,35 @@
         <v>151</v>
       </c>
       <c r="H184" t="s" s="13">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="I184" t="s" s="15">
         <v>225</v>
       </c>
       <c r="J184" t="s" s="15">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="K184" t="b" s="3">
         <v>1</v>
       </c>
       <c r="L184" t="s" s="15">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M184" s="15"/>
       <c r="N184" t="s" s="17">
         <v>327</v>
       </c>
       <c r="O184" t="s" s="103">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="P184" t="s" s="21">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="Q184" t="s" s="23">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="R184" t="s" s="15">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="S184" t="n" s="25">
         <v>1.0</v>
@@ -52351,10 +52356,10 @@
         <v>150</v>
       </c>
       <c r="W184" t="s" s="31">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="X184" t="s" s="15">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="Y184" s="33"/>
       <c r="Z184" t="n" s="107">
@@ -52567,10 +52572,10 @@
         <v>151</v>
       </c>
       <c r="DO184" t="s" s="15">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="DP184" t="s" s="101">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="DQ184" t="s" s="31">
         <v>373</v>
@@ -52593,19 +52598,19 @@
       <c r="EC184" s="31"/>
       <c r="ED184" s="25"/>
       <c r="EE184" t="s" s="15">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="EF184" s="31"/>
       <c r="EG184" t="s" s="15">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="EH184" s="15"/>
       <c r="EI184" s="15"/>
       <c r="EJ184" t="s" s="15">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="EK184" t="s" s="15">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="EL184" s="15"/>
       <c r="EM184" s="15"/>
@@ -52615,10 +52620,10 @@
     </row>
     <row r="185" hidden="false">
       <c r="A185" t="s" s="3">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B185" t="s" s="5">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C185" t="s" s="3">
         <v>188</v>
@@ -52636,13 +52641,13 @@
         <v>151</v>
       </c>
       <c r="H185" t="s" s="13">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I185" t="s" s="15">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="J185" t="s" s="15">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="K185" t="b" s="3">
         <v>1</v>
@@ -52656,7 +52661,7 @@
       <c r="P185" s="21"/>
       <c r="Q185" s="23"/>
       <c r="R185" t="s" s="15">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="S185" t="n" s="25">
         <v>0.0</v>
@@ -52712,14 +52717,14 @@
         <v>117000.0</v>
       </c>
       <c r="AP185" t="s" s="25">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="AQ185" s="25"/>
       <c r="AR185" t="n" s="25">
         <v>122850.0</v>
       </c>
       <c r="AS185" t="s" s="25">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AT185" t="n" s="41">
         <v>44468.0</v>
@@ -52728,14 +52733,14 @@
         <v>117000.0</v>
       </c>
       <c r="AV185" t="s" s="25">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AW185" s="25"/>
       <c r="AX185" t="n" s="25">
         <v>117000.0</v>
       </c>
       <c r="AY185" t="s" s="25">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AZ185" t="n" s="41">
         <v>44438.0</v>
@@ -52744,21 +52749,21 @@
         <v>46800.0</v>
       </c>
       <c r="BB185" t="s" s="25">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="BC185" s="25"/>
       <c r="BD185" t="n" s="25">
         <v>117000.0</v>
       </c>
       <c r="BE185" t="s" s="25">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="BF185" s="25"/>
       <c r="BG185" t="n" s="25">
         <v>117000.0</v>
       </c>
       <c r="BH185" t="s" s="25">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="BI185" s="25"/>
       <c r="BJ185" t="n" s="37">
@@ -52881,7 +52886,7 @@
       <c r="DM185" s="91"/>
       <c r="DN185" s="73"/>
       <c r="DO185" t="s" s="15">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="DP185" s="101"/>
       <c r="DQ185" s="31"/>
@@ -52907,7 +52912,7 @@
       <c r="EC185" s="31"/>
       <c r="ED185" s="25"/>
       <c r="EE185" t="s" s="15">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="EF185" s="31"/>
       <c r="EG185" s="15"/>
@@ -52921,10 +52926,10 @@
     </row>
     <row r="186" hidden="false">
       <c r="A186" t="s" s="25">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B186" t="s" s="5">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C186" t="s" s="3">
         <v>147</v>
@@ -53131,17 +53136,17 @@
     </row>
     <row r="187" hidden="false">
       <c r="A187" t="s" s="25">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B187" t="s" s="5">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C187" t="s" s="3">
         <v>188</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" t="s" s="7">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F187" s="9"/>
       <c r="G187" t="s" s="11">
@@ -53333,17 +53338,17 @@
     </row>
     <row r="188" hidden="false">
       <c r="A188" t="s" s="25">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B188" t="s" s="5">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C188" t="s" s="3">
         <v>241</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" t="s" s="7">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="F188" s="9"/>
       <c r="G188" t="s" s="11">
@@ -53541,10 +53546,10 @@
     </row>
     <row r="189" hidden="false">
       <c r="A189" t="s" s="25">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B189" t="s" s="5">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C189" t="s" s="3">
         <v>241</v>
@@ -53745,7 +53750,7 @@
         <v>166</v>
       </c>
       <c r="DS189" t="s" s="31">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="DT189" t="s" s="31">
         <v>212</v>
@@ -53754,7 +53759,7 @@
       <c r="DV189" s="31"/>
       <c r="DW189" s="31"/>
       <c r="DX189" t="s" s="25">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="DY189" s="31"/>
       <c r="DZ189" s="25"/>
@@ -53777,10 +53782,10 @@
     </row>
     <row r="190" hidden="false">
       <c r="A190" t="s" s="3">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B190" t="s" s="5">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C190" t="s" s="3">
         <v>188</v>
@@ -53789,7 +53794,7 @@
         <v>196</v>
       </c>
       <c r="E190" t="s" s="7">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F190" t="s" s="9">
         <v>231</v>
@@ -53798,13 +53803,13 @@
         <v>151</v>
       </c>
       <c r="H190" t="s" s="13">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="I190" t="s" s="15">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="J190" t="s" s="15">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="K190" t="b" s="3">
         <v>1</v>
@@ -53818,7 +53823,7 @@
       <c r="P190" s="21"/>
       <c r="Q190" s="23"/>
       <c r="R190" t="s" s="15">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="S190" s="25"/>
       <c r="T190" t="s" s="27">
@@ -53946,7 +53951,7 @@
         <v>1.45334477E8</v>
       </c>
       <c r="CF190" t="s" s="25">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="CG190" t="n" s="57">
         <v>0.7</v>
@@ -53959,7 +53964,7 @@
         <v>44569.0</v>
       </c>
       <c r="CK190" t="s" s="65">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="CL190" t="n" s="67">
         <v>0.7</v>
@@ -53974,7 +53979,7 @@
         <v>206</v>
       </c>
       <c r="CP190" t="s" s="47">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="CQ190" t="s" s="73">
         <v>285</v>
@@ -54021,7 +54026,7 @@
         <v>151</v>
       </c>
       <c r="DO190" t="s" s="15">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="DP190" s="101"/>
       <c r="DQ190" s="31"/>
@@ -54043,14 +54048,14 @@
       <c r="EC190" s="31"/>
       <c r="ED190" s="25"/>
       <c r="EE190" t="s" s="15">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="EF190" s="31"/>
       <c r="EG190" s="15"/>
       <c r="EH190" s="15"/>
       <c r="EI190" s="15"/>
       <c r="EJ190" t="s" s="15">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="EK190" s="15"/>
       <c r="EL190" s="15"/>
@@ -54059,10 +54064,10 @@
     </row>
     <row r="191" hidden="false">
       <c r="A191" t="s" s="3">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B191" t="s" s="5">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C191" t="s" s="3">
         <v>256</v>
@@ -54080,7 +54085,7 @@
         <v>151</v>
       </c>
       <c r="H191" t="s" s="13">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="I191" t="s" s="15">
         <v>253</v>
@@ -54098,7 +54103,7 @@
       <c r="P191" s="21"/>
       <c r="Q191" s="23"/>
       <c r="R191" t="s" s="15">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="S191" s="25"/>
       <c r="T191" s="27"/>
@@ -54106,7 +54111,7 @@
       <c r="V191" s="11"/>
       <c r="W191" s="31"/>
       <c r="X191" t="s" s="15">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="Y191" s="33"/>
       <c r="Z191" t="n" s="107">
@@ -54207,7 +54212,7 @@
         <v>150</v>
       </c>
       <c r="CC191" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD191" t="n" s="53">
         <v>44236.0</v>
@@ -54289,7 +54294,7 @@
       <c r="DM191" s="91"/>
       <c r="DN191" s="73"/>
       <c r="DO191" t="s" s="15">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="DP191" s="101"/>
       <c r="DQ191" s="31"/>
@@ -54311,14 +54316,14 @@
       <c r="EC191" s="31"/>
       <c r="ED191" s="25"/>
       <c r="EE191" t="s" s="15">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="EF191" s="31"/>
       <c r="EG191" s="15"/>
       <c r="EH191" s="15"/>
       <c r="EI191" s="15"/>
       <c r="EJ191" t="s" s="15">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="EK191" s="15"/>
       <c r="EL191" s="15"/>
@@ -54327,10 +54332,10 @@
     </row>
     <row r="192" hidden="false">
       <c r="A192" t="s" s="25">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B192" t="s" s="5">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C192" t="s" s="3">
         <v>241</v>
@@ -54345,10 +54350,10 @@
       </c>
       <c r="H192" s="13"/>
       <c r="I192" t="s" s="15">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="J192" t="s" s="15">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K192" s="3"/>
       <c r="L192" s="15"/>
@@ -54539,7 +54544,7 @@
       <c r="EC192" s="31"/>
       <c r="ED192" s="25"/>
       <c r="EE192" t="s" s="15">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="EF192" s="31"/>
       <c r="EG192" s="15"/>
@@ -54553,10 +54558,10 @@
     </row>
     <row r="193" hidden="false">
       <c r="A193" t="s" s="3">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B193" t="s" s="5">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C193" t="s" s="3">
         <v>256</v>
@@ -54565,7 +54570,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s" s="7">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F193" t="s" s="9">
         <v>204</v>
@@ -54574,13 +54579,13 @@
         <v>151</v>
       </c>
       <c r="H193" t="s" s="13">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="I193" t="s" s="15">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J193" t="s" s="15">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="K193" t="b" s="3">
         <v>1</v>
@@ -54602,7 +54607,7 @@
       <c r="V193" s="11"/>
       <c r="W193" s="31"/>
       <c r="X193" t="s" s="15">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="Y193" s="33"/>
       <c r="Z193" t="n" s="107">
@@ -54655,7 +54660,7 @@
         <v>1500100.0</v>
       </c>
       <c r="AS193" t="s" s="3">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AT193" t="n" s="39">
         <v>44468.0</v>
@@ -54664,7 +54669,7 @@
         <v>494400.0</v>
       </c>
       <c r="AV193" t="s" s="25">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="AW193" s="25"/>
       <c r="AX193" s="25"/>
@@ -54807,7 +54812,7 @@
         <v>151</v>
       </c>
       <c r="DO193" t="s" s="15">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="DP193" s="101"/>
       <c r="DQ193" s="31"/>
@@ -54831,14 +54836,14 @@
       <c r="EC193" s="31"/>
       <c r="ED193" s="25"/>
       <c r="EE193" t="s" s="15">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="EF193" s="31"/>
       <c r="EG193" s="15"/>
       <c r="EH193" s="15"/>
       <c r="EI193" s="15"/>
       <c r="EJ193" t="s" s="15">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="EK193" s="15"/>
       <c r="EL193" s="15"/>
@@ -54847,10 +54852,10 @@
     </row>
     <row r="194" hidden="false">
       <c r="A194" t="s" s="3">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B194" t="s" s="5">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C194" t="s" s="3">
         <v>147</v>
@@ -54859,7 +54864,7 @@
         <v>196</v>
       </c>
       <c r="E194" t="s" s="7">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F194" t="s" s="9">
         <v>231</v>
@@ -54869,10 +54874,10 @@
       </c>
       <c r="H194" s="13"/>
       <c r="I194" t="s" s="15">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J194" t="s" s="15">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K194" s="3"/>
       <c r="L194" t="s" s="15">
@@ -54890,7 +54895,7 @@
       <c r="V194" s="11"/>
       <c r="W194" s="31"/>
       <c r="X194" t="s" s="15">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="Y194" s="33"/>
       <c r="Z194" t="n" s="107">
@@ -54938,7 +54943,7 @@
         <v>102960.0</v>
       </c>
       <c r="AP194" t="s" s="25">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AQ194" t="n" s="39">
         <v>44468.0</v>
@@ -54947,7 +54952,7 @@
         <v>72000.0</v>
       </c>
       <c r="AS194" t="s" s="3">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="AT194" t="n" s="39">
         <v>44438.0</v>
@@ -55048,7 +55053,7 @@
         <v>209</v>
       </c>
       <c r="CV194" t="s" s="83">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="CW194" t="n" s="119">
         <v>230000.0</v>
@@ -55076,7 +55081,7 @@
       <c r="DL194" s="73"/>
       <c r="DM194" s="91"/>
       <c r="DN194" t="s" s="73">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="DO194" s="15"/>
       <c r="DP194" s="101"/>
@@ -55097,7 +55102,7 @@
       <c r="EC194" s="31"/>
       <c r="ED194" s="25"/>
       <c r="EE194" t="s" s="15">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="EF194" s="31"/>
       <c r="EG194" s="15"/>
@@ -55111,10 +55116,10 @@
     </row>
     <row r="195" hidden="false">
       <c r="A195" t="s" s="3">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B195" t="s" s="5">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C195" t="s" s="3">
         <v>147</v>
@@ -55123,7 +55128,7 @@
         <v>148</v>
       </c>
       <c r="E195" t="s" s="7">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F195" t="s" s="9">
         <v>150</v>
@@ -55132,13 +55137,13 @@
         <v>151</v>
       </c>
       <c r="H195" t="s" s="13">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="I195" t="s" s="15">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="J195" t="s" s="15">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" t="s" s="15">
@@ -55149,16 +55154,16 @@
         <v>156</v>
       </c>
       <c r="O195" t="s" s="103">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="P195" t="s" s="21">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="Q195" t="s" s="23">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="R195" t="s" s="15">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="S195" t="n" s="25">
         <v>1.0</v>
@@ -55174,7 +55179,7 @@
       </c>
       <c r="W195" s="31"/>
       <c r="X195" t="s" s="15">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="Y195" s="33"/>
       <c r="Z195" t="n" s="107">
@@ -55281,7 +55286,7 @@
         <v>150</v>
       </c>
       <c r="CC195" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD195" t="n" s="53">
         <v>44236.0</v>
@@ -55290,7 +55295,7 @@
         <v>4879321.0</v>
       </c>
       <c r="CF195" t="s" s="25">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="CG195" t="n" s="57">
         <v>0.2</v>
@@ -55365,7 +55370,7 @@
         <v>151</v>
       </c>
       <c r="DO195" t="s" s="15">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="DP195" s="101"/>
       <c r="DQ195" t="s" s="31">
@@ -55389,29 +55394,29 @@
         <v>181</v>
       </c>
       <c r="EC195" t="s" s="31">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="ED195" s="25"/>
       <c r="EE195" t="s" s="15">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="EF195" s="31"/>
       <c r="EG195" t="s" s="15">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="EH195" s="15"/>
       <c r="EI195" s="15"/>
       <c r="EJ195" t="s" s="15">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="EK195" t="s" s="15">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="EL195" t="s" s="15">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="EM195" t="s" s="15">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="EN195" t="n" s="25">
         <v>1.0</v>
@@ -55419,10 +55424,10 @@
     </row>
     <row r="196" hidden="false">
       <c r="A196" t="s" s="3">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B196" t="s" s="5">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C196" t="s" s="3">
         <v>195</v>
@@ -55431,7 +55436,7 @@
         <v>196</v>
       </c>
       <c r="E196" t="s" s="7">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F196" t="s" s="9">
         <v>150</v>
@@ -55444,21 +55449,21 @@
         <v>225</v>
       </c>
       <c r="J196" t="s" s="15">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K196" s="3"/>
       <c r="L196" t="s" s="15">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M196" s="15"/>
       <c r="N196" s="17"/>
       <c r="O196" s="103"/>
       <c r="P196" s="21"/>
       <c r="Q196" t="s" s="23">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="R196" t="s" s="15">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="S196" t="n" s="25">
         <v>0.0</v>
@@ -55518,7 +55523,7 @@
         <v>151200.0</v>
       </c>
       <c r="AP196" t="s" s="25">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="AQ196" t="n" s="39">
         <v>44531.0</v>
@@ -55593,7 +55598,7 @@
         <v>168</v>
       </c>
       <c r="CC196" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD196" t="n" s="53">
         <v>44587.0</v>
@@ -55602,7 +55607,7 @@
         <v>206</v>
       </c>
       <c r="CF196" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG196" t="n" s="57">
         <v>0.46</v>
@@ -55679,7 +55684,7 @@
       <c r="DM196" s="91"/>
       <c r="DN196" s="73"/>
       <c r="DO196" t="s" s="15">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="DP196" s="101"/>
       <c r="DQ196" s="31"/>
@@ -55695,7 +55700,7 @@
       <c r="DW196" s="31"/>
       <c r="DX196" s="25"/>
       <c r="DY196" t="s" s="31">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="DZ196" s="25"/>
       <c r="EA196" s="25"/>
@@ -55705,7 +55710,7 @@
       <c r="EC196" s="31"/>
       <c r="ED196" s="25"/>
       <c r="EE196" t="s" s="15">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="EF196" s="31"/>
       <c r="EG196" s="15"/>
@@ -55721,10 +55726,10 @@
     </row>
     <row r="197" hidden="false">
       <c r="A197" t="s" s="3">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B197" t="s" s="5">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C197" t="s" s="3">
         <v>195</v>
@@ -55733,7 +55738,7 @@
         <v>196</v>
       </c>
       <c r="E197" t="s" s="7">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F197" t="s" s="9">
         <v>231</v>
@@ -55742,13 +55747,13 @@
         <v>151</v>
       </c>
       <c r="H197" t="s" s="13">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="I197" t="s" s="15">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="J197" t="s" s="15">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K197" s="3"/>
       <c r="L197" t="s" s="15">
@@ -55760,7 +55765,7 @@
       <c r="P197" s="21"/>
       <c r="Q197" s="23"/>
       <c r="R197" t="s" s="15">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="S197" t="n" s="25">
         <v>0.0</v>
@@ -55771,10 +55776,10 @@
       </c>
       <c r="V197" s="11"/>
       <c r="W197" t="s" s="31">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="X197" t="s" s="15">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="Y197" s="33"/>
       <c r="Z197" t="s" s="125">
@@ -55877,7 +55882,7 @@
         <v>150</v>
       </c>
       <c r="CC197" t="s" s="23">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CD197" t="n" s="53">
         <v>44438.0</v>
@@ -55886,7 +55891,7 @@
         <v>206</v>
       </c>
       <c r="CF197" t="s" s="25">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CG197" t="n" s="57">
         <v>0.47</v>
@@ -55965,7 +55970,7 @@
       <c r="DM197" s="91"/>
       <c r="DN197" s="73"/>
       <c r="DO197" t="s" s="15">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="DP197" s="101"/>
       <c r="DQ197" s="31"/>
@@ -55987,7 +55992,7 @@
       <c r="EC197" s="31"/>
       <c r="ED197" s="25"/>
       <c r="EE197" t="s" s="15">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="EF197" s="31"/>
       <c r="EG197" s="15"/>
@@ -56020,631 +56025,631 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B1" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="2"/>
     <row r="4">
       <c r="A4" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C4" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D4" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="5"/>
     <row r="7">
       <c r="A7" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B7" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C7" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D7" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="8"/>
     <row r="10">
       <c r="A10" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B10" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C10" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D10" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="11"/>
     <row r="13">
       <c r="A13" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B13" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C13" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D13" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="14"/>
     <row r="16">
       <c r="A16" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B16" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C16" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D16" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="17"/>
     <row r="19">
       <c r="A19" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B19" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C19" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D19" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="20"/>
     <row r="22">
       <c r="A22" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B22" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C22" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D22" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="23"/>
     <row r="25">
       <c r="A25" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B25" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C25" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D25" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="26"/>
     <row r="28">
       <c r="A28" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B28" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C28" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D28" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="29"/>
     <row r="31">
       <c r="A31" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B31" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C31" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D31" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="32"/>
     <row r="34">
       <c r="A34" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B34" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C34" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D34" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="35"/>
     <row r="37">
       <c r="A37" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B37" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C37" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D37" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="38"/>
     <row r="40">
       <c r="A40" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B40" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="C40" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D40" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="41"/>
     <row r="43">
       <c r="A43" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B43" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C43" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D43" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="44"/>
     <row r="46">
       <c r="A46" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B46" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C46" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D46" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="47"/>
     <row r="49">
       <c r="A49" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B49" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C49" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D49" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="50"/>
     <row r="52">
       <c r="A52" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B52" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C52" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D52" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="53"/>
     <row r="55">
       <c r="A55" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B55" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C55" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D55" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="56"/>
     <row r="58">
       <c r="A58" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B58" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C58" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D58" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="59"/>
     <row r="61">
       <c r="A61" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B61" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C61" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D61" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="62"/>
     <row r="64">
       <c r="A64" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B64" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C64" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D64" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="65"/>
     <row r="67">
       <c r="A67" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B67" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C67" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D67" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="68"/>
     <row r="70">
       <c r="A70" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B70" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C70" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D70" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="71"/>
     <row r="73">
       <c r="A73" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B73" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C73" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D73" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="74"/>
     <row r="76">
       <c r="A76" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B76" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C76" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D76" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="77"/>
     <row r="79">
       <c r="A79" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B79" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C79" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D79" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="80"/>
     <row r="82">
       <c r="A82" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B82" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C82" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D82" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="83"/>
     <row r="85">
       <c r="A85" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B85" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C85" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D85" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="86"/>
     <row r="88">
       <c r="A88" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B88" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C88" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D88" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="89"/>
     <row r="91">
       <c r="A91" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B91" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C91" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D91" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="92"/>
     <row r="94">
       <c r="A94" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B94" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C94" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D94" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="95"/>
     <row r="97">
       <c r="A97" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B97" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="C97" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D97" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="98"/>
     <row r="100">
       <c r="A100" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B100" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C100" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D100" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="101"/>
     <row r="103">
       <c r="A103" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B103" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C103" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D103" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="104"/>
     <row r="106">
       <c r="A106" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B106" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="C106" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D106" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="107"/>
     <row r="109">
       <c r="A109" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B109" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C109" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D109" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="110"/>
     <row r="112">
       <c r="A112" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B112" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C112" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D112" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="113"/>
     <row r="115">
       <c r="A115" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B115" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C115" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D115" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="116"/>
     <row r="118">
       <c r="A118" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B118" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C118" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D118" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="119"/>
     <row r="121">
       <c r="A121" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B121" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C121" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D121" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="122"/>
     <row r="124">
       <c r="A124" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B124" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C124" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D124" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="125"/>
@@ -56866,13 +56871,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EEB910-8F5A-4418-B17D-CCF32AE678B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1715B57E-1030-48F8-9EE0-1DAB6A03C4C7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25B1E5E-C09D-4F26-B34A-30600B610BA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10EB01A7-5FEF-41F6-AB65-33675BDDC801}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA6E788-3256-4457-B327-BB9BB6B07B7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{123C9D12-8E1A-4AD3-AF3C-541EBD84AAF1}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56871,13 +56871,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1715B57E-1030-48F8-9EE0-1DAB6A03C4C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA1FD436-7066-4852-8E82-909009D86017}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10EB01A7-5FEF-41F6-AB65-33675BDDC801}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2B2F1B6-E305-4F7A-85F1-BC85721F8274}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{123C9D12-8E1A-4AD3-AF3C-541EBD84AAF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5B7BD8-4B66-403F-994E-46EB5240163E}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56864,20 +56864,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA1FD436-7066-4852-8E82-909009D86017}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A233C7-E547-483C-8F50-9444D922CD1C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2B2F1B6-E305-4F7A-85F1-BC85721F8274}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5B7BD8-4B66-403F-994E-46EB5240163E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3FD982-2C21-48AC-B2D6-389206791392}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56865,9 +56865,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A233C7-E547-483C-8F50-9444D922CD1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2179FD-40A7-466A-AC34-DA509D54BC1A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3FD982-2C21-48AC-B2D6-389206791392}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D9028A-A792-4568-89FB-834F94CC1066}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56865,9 +56865,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A2179FD-40A7-466A-AC34-DA509D54BC1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE9D2FDD-61F1-44F5-AA71-49A169837CE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63D9028A-A792-4568-89FB-834F94CC1066}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0D0AC4-5514-4461-83F7-03521B22CAAD}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56864,20 +56864,10 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1715B57E-1030-48F8-9EE0-1DAB6A03C4C7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE9D2FDD-61F1-44F5-AA71-49A169837CE8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10EB01A7-5FEF-41F6-AB65-33675BDDC801}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{123C9D12-8E1A-4AD3-AF3C-541EBD84AAF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0D0AC4-5514-4461-83F7-03521B22CAAD}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56865,9 +56865,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE9D2FDD-61F1-44F5-AA71-49A169837CE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD1AB8A-99E5-48B7-BEB5-B6E63D4168DF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD0D0AC4-5514-4461-83F7-03521B22CAAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA005E2A-301F-4A60-BEF5-49209E54543A}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56865,9 +56865,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BD1AB8A-99E5-48B7-BEB5-B6E63D4168DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AAB1F98-B12A-4F72-BA16-D3D0DBFAB198}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA005E2A-301F-4A60-BEF5-49209E54543A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C64C3B28-F3FF-4E18-AF9A-4678A695CAC7}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31546" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31541" uniqueCount="1556">
   <si>
     <t/>
   </si>
@@ -4862,7 +4862,7 @@
     <numFmt numFmtId="169" formatCode="###0;-###0"/>
     <numFmt numFmtId="170" formatCode="###0.0;-###0.0"/>
   </numFmts>
-  <fonts count="80">
+  <fonts count="86">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -5317,6 +5317,42 @@
     </font>
     <font>
       <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10.0"/>
       <color rgb="000000"/>
       <u val="none"/>
@@ -5346,7 +5382,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5385,6 +5421,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor rgb="FEFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FEFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor rgb="C6E7C8"/>
       </patternFill>
     </fill>
@@ -5406,7 +5452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5697,28 +5743,52 @@
     <xf numFmtId="168" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="74" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="75" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="74" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="77" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="78" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="center" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="80" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="left" vertical="center" wrapText="true" indent="0"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="165" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="166" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="166" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="top" wrapText="true" indent="0"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="169" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false" indent="0"/>
     </xf>
   </cellXfs>
@@ -25375,14 +25445,26 @@
         <v>206</v>
       </c>
       <c r="CF77" s="25"/>
-      <c r="CG77" s="111"/>
-      <c r="CH77" s="65"/>
+      <c r="CG77" t="n" s="147">
+        <v>0.7</v>
+      </c>
+      <c r="CH77" t="n" s="149">
+        <v>44742.0</v>
+      </c>
       <c r="CI77" s="61"/>
       <c r="CJ77" s="63"/>
-      <c r="CK77" s="65"/>
-      <c r="CL77" s="113"/>
-      <c r="CM77" s="25"/>
-      <c r="CN77" s="69"/>
+      <c r="CK77" t="s" s="151">
+        <v>207</v>
+      </c>
+      <c r="CL77" t="n" s="153">
+        <v>0.7</v>
+      </c>
+      <c r="CM77" t="n" s="155">
+        <v>44742.0</v>
+      </c>
+      <c r="CN77" t="s" s="157">
+        <v>3</v>
+      </c>
       <c r="CO77" s="71"/>
       <c r="CP77" t="n" s="35">
         <v>0.0</v>
@@ -26714,7 +26796,7 @@
       <c r="CQ82" t="s" s="73">
         <v>206</v>
       </c>
-      <c r="CR82" t="s" s="147">
+      <c r="CR82" t="s" s="159">
         <v>177</v>
       </c>
       <c r="CS82" t="n" s="77">
@@ -30039,10 +30121,10 @@
       <c r="CF96" t="n" s="25">
         <v>2022.0</v>
       </c>
-      <c r="CG96" t="n" s="149">
+      <c r="CG96" t="n" s="161">
         <v>0.7</v>
       </c>
-      <c r="CH96" t="n" s="151">
+      <c r="CH96" t="n" s="163">
         <v>44926.0</v>
       </c>
       <c r="CI96" t="n" s="121">
@@ -34194,7 +34276,7 @@
       <c r="CI112" t="n" s="121">
         <v>0.66</v>
       </c>
-      <c r="CJ112" t="n" s="153">
+      <c r="CJ112" t="n" s="165">
         <v>45291.0</v>
       </c>
       <c r="CK112" t="s" s="65">
@@ -37320,7 +37402,7 @@
         <v>439</v>
       </c>
       <c r="K125" s="3"/>
-      <c r="L125" t="s" s="155">
+      <c r="L125" t="s" s="167">
         <v>227</v>
       </c>
       <c r="M125" s="15"/>
@@ -37328,7 +37410,7 @@
       <c r="O125" s="103"/>
       <c r="P125" s="21"/>
       <c r="Q125" s="23"/>
-      <c r="R125" s="155"/>
+      <c r="R125" s="167"/>
       <c r="S125" s="25"/>
       <c r="T125" s="27"/>
       <c r="U125" s="105"/>
@@ -38160,7 +38242,7 @@
       <c r="CQ128" t="s" s="73">
         <v>313</v>
       </c>
-      <c r="CR128" t="s" s="147">
+      <c r="CR128" t="s" s="159">
         <v>177</v>
       </c>
       <c r="CS128" t="n" s="77">
@@ -46703,14 +46785,24 @@
         <v>206</v>
       </c>
       <c r="CF162" s="25"/>
-      <c r="CG162" s="111"/>
-      <c r="CH162" s="65"/>
+      <c r="CG162" t="n" s="147">
+        <v>0.5</v>
+      </c>
+      <c r="CH162" t="n" s="149">
+        <v>44926.0</v>
+      </c>
       <c r="CI162" s="61"/>
       <c r="CJ162" s="63"/>
       <c r="CK162" s="65"/>
-      <c r="CL162" s="113"/>
-      <c r="CM162" s="25"/>
-      <c r="CN162" s="69"/>
+      <c r="CL162" t="n" s="153">
+        <v>0.5</v>
+      </c>
+      <c r="CM162" t="n" s="155">
+        <v>44926.0</v>
+      </c>
+      <c r="CN162" t="s" s="157">
+        <v>3</v>
+      </c>
       <c r="CO162" s="71"/>
       <c r="CP162" s="47"/>
       <c r="CQ162" t="s" s="73">
@@ -49832,7 +49924,7 @@
       <c r="BG174" s="25"/>
       <c r="BH174" s="25"/>
       <c r="BI174" s="25"/>
-      <c r="BJ174" t="n" s="157">
+      <c r="BJ174" t="n" s="169">
         <v>1058450.0</v>
       </c>
       <c r="BK174" t="n" s="37">
@@ -56656,218 +56748,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
-    <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
-    <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b370a6fa-a798-42e0-969d-19c284d8683f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62ca1376-8bea-4949-825e-fec085c3924e" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AAB1F98-B12A-4F72-BA16-D3D0DBFAB198}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C64C3B28-F3FF-4E18-AF9A-4678A695CAC7}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -4862,7 +4862,7 @@
     <numFmt numFmtId="169" formatCode="###0;-###0"/>
     <numFmt numFmtId="170" formatCode="###0.0;-###0.0"/>
   </numFmts>
-  <fonts count="86">
+  <fonts count="80">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -5317,42 +5317,6 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <sz val="10.0"/>
       <color rgb="000000"/>
       <u val="none"/>
@@ -5382,7 +5346,7 @@
       <u val="none"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5421,16 +5385,6 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="FEFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FEFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor rgb="C6E7C8"/>
       </patternFill>
     </fill>
@@ -5452,7 +5406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5743,52 +5697,28 @@
     <xf numFmtId="168" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="74" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="center" wrapText="true" indent="0"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="74" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
+    <xf numFmtId="165" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="75" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+    <xf numFmtId="166" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+      <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="166" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="77" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment vertical="top" wrapText="false" indent="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="78" fillId="9" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
-      <alignment vertical="top" wrapText="false" indent="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment vertical="center" wrapText="false" indent="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="80" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="left" vertical="center" wrapText="true" indent="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="81" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="82" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="false" indent="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="83" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true" indent="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="top" wrapText="true" indent="0"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="85" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="169" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false" indent="0"/>
     </xf>
   </cellXfs>
@@ -25445,24 +25375,24 @@
         <v>206</v>
       </c>
       <c r="CF77" s="25"/>
-      <c r="CG77" t="n" s="147">
+      <c r="CG77" t="n" s="57">
         <v>0.7</v>
       </c>
-      <c r="CH77" t="n" s="149">
+      <c r="CH77" t="n" s="59">
         <v>44742.0</v>
       </c>
       <c r="CI77" s="61"/>
       <c r="CJ77" s="63"/>
-      <c r="CK77" t="s" s="151">
+      <c r="CK77" t="s" s="65">
         <v>207</v>
       </c>
-      <c r="CL77" t="n" s="153">
+      <c r="CL77" t="n" s="67">
         <v>0.7</v>
       </c>
-      <c r="CM77" t="n" s="155">
+      <c r="CM77" t="n" s="41">
         <v>44742.0</v>
       </c>
-      <c r="CN77" t="s" s="157">
+      <c r="CN77" t="s" s="69">
         <v>3</v>
       </c>
       <c r="CO77" s="71"/>
@@ -26796,7 +26726,7 @@
       <c r="CQ82" t="s" s="73">
         <v>206</v>
       </c>
-      <c r="CR82" t="s" s="159">
+      <c r="CR82" t="s" s="147">
         <v>177</v>
       </c>
       <c r="CS82" t="n" s="77">
@@ -30121,10 +30051,10 @@
       <c r="CF96" t="n" s="25">
         <v>2022.0</v>
       </c>
-      <c r="CG96" t="n" s="161">
+      <c r="CG96" t="n" s="149">
         <v>0.7</v>
       </c>
-      <c r="CH96" t="n" s="163">
+      <c r="CH96" t="n" s="151">
         <v>44926.0</v>
       </c>
       <c r="CI96" t="n" s="121">
@@ -34276,7 +34206,7 @@
       <c r="CI112" t="n" s="121">
         <v>0.66</v>
       </c>
-      <c r="CJ112" t="n" s="165">
+      <c r="CJ112" t="n" s="153">
         <v>45291.0</v>
       </c>
       <c r="CK112" t="s" s="65">
@@ -37402,7 +37332,7 @@
         <v>439</v>
       </c>
       <c r="K125" s="3"/>
-      <c r="L125" t="s" s="167">
+      <c r="L125" t="s" s="155">
         <v>227</v>
       </c>
       <c r="M125" s="15"/>
@@ -37410,7 +37340,7 @@
       <c r="O125" s="103"/>
       <c r="P125" s="21"/>
       <c r="Q125" s="23"/>
-      <c r="R125" s="167"/>
+      <c r="R125" s="155"/>
       <c r="S125" s="25"/>
       <c r="T125" s="27"/>
       <c r="U125" s="105"/>
@@ -38242,7 +38172,7 @@
       <c r="CQ128" t="s" s="73">
         <v>313</v>
       </c>
-      <c r="CR128" t="s" s="159">
+      <c r="CR128" t="s" s="147">
         <v>177</v>
       </c>
       <c r="CS128" t="n" s="77">
@@ -46785,22 +46715,22 @@
         <v>206</v>
       </c>
       <c r="CF162" s="25"/>
-      <c r="CG162" t="n" s="147">
+      <c r="CG162" t="n" s="57">
         <v>0.5</v>
       </c>
-      <c r="CH162" t="n" s="149">
+      <c r="CH162" t="n" s="59">
         <v>44926.0</v>
       </c>
       <c r="CI162" s="61"/>
       <c r="CJ162" s="63"/>
       <c r="CK162" s="65"/>
-      <c r="CL162" t="n" s="153">
+      <c r="CL162" t="n" s="67">
         <v>0.5</v>
       </c>
-      <c r="CM162" t="n" s="155">
+      <c r="CM162" t="n" s="41">
         <v>44926.0</v>
       </c>
-      <c r="CN162" t="s" s="157">
+      <c r="CN162" t="s" s="69">
         <v>3</v>
       </c>
       <c r="CO162" s="71"/>
@@ -49924,7 +49854,7 @@
       <c r="BG174" s="25"/>
       <c r="BH174" s="25"/>
       <c r="BI174" s="25"/>
-      <c r="BJ174" t="n" s="169">
+      <c r="BJ174" t="n" s="157">
         <v>1058450.0</v>
       </c>
       <c r="BK174" t="n" s="37">
@@ -56748,4 +56678,218 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+    <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b370a6fa-a798-42e0-969d-19c284d8683f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="62ca1376-8bea-4949-825e-fec085c3924e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED72F416-BC23-4E9E-974A-BE008F2F363A}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56FFC71A-0536-45D3-AA75-6E985B2531D7}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56887,9 +56887,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED72F416-BC23-4E9E-974A-BE008F2F363A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D56B283-4A56-4143-A018-ECECC59CE994}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56FFC71A-0536-45D3-AA75-6E985B2531D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA73A51-DAC7-4DDF-A32F-95473C2CF03B}"/>
 </file>
--- a/data/_input/base_smartsheet.xlsx
+++ b/data/_input/base_smartsheet.xlsx
@@ -56681,8 +56681,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -56700,6 +56700,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -56745,6 +56748,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -56887,9 +56907,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D56B283-4A56-4143-A018-ECECC59CE994}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F355051-25BF-4A67-A824-5EAF2851BD41}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA73A51-DAC7-4DDF-A32F-95473C2CF03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5817531B-D928-4096-A5BE-7FED91362A84}"/>
 </file>